--- a/WA WB 4 to 12.xlsx
+++ b/WA WB 4 to 12.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristy\Documents\GitHub\political-uncertainty\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>al</t>
   </si>
@@ -71,12 +75,18 @@
   <si>
     <t>ValA</t>
   </si>
+  <si>
+    <t>sy=1.1</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,8 +113,21 @@
       <name val="Lucida Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF555555"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +152,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -158,11 +187,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -198,6 +255,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -207,6 +273,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -255,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,7 +359,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,15 +570,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A70" activePane="bottomLeft"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="600" topLeftCell="A40" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="M87" sqref="M87"/>
+      <selection pane="bottomLeft" activeCell="V43" sqref="V43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -624,7 +693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -683,7 +752,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="15.75" thickBot="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -742,7 +811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -801,7 +870,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15.75" thickBot="1">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -860,7 +929,7 @@
         <v>4.0184300000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -919,7 +988,7 @@
         <v>4.6454089999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15.75" thickBot="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -978,7 +1047,7 @@
         <v>5.3474870000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15.75" thickBot="1">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1037,7 +1106,7 @@
         <v>6.0936870000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1096,7 +1165,7 @@
         <v>6.8726940000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -1155,7 +1224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15.75" thickBot="1">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -1214,7 +1283,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15.75" thickBot="1">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -1273,7 +1342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15.75" thickBot="1">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -1332,7 +1401,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15.75" thickBot="1">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -1391,7 +1460,7 @@
         <v>4.0184300000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15.75" thickBot="1">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -1450,7 +1519,7 @@
         <v>4.6454089999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15.75" thickBot="1">
       <c r="A19" s="2">
         <v>7</v>
       </c>
@@ -1509,7 +1578,7 @@
         <v>5.3474870000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15.75" thickBot="1">
       <c r="A20" s="2">
         <v>8</v>
       </c>
@@ -1568,7 +1637,7 @@
         <v>6.0936870000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15.75" thickBot="1">
       <c r="A21" s="2">
         <v>9</v>
       </c>
@@ -1627,7 +1696,7 @@
         <v>6.8726940000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15.75" thickBot="1">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -1686,7 +1755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1">
       <c r="A24" s="2">
         <v>2</v>
       </c>
@@ -1745,7 +1814,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15.75" thickBot="1">
       <c r="A25" s="2">
         <v>3</v>
       </c>
@@ -1804,7 +1873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15.75" thickBot="1">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -1863,7 +1932,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15.75" thickBot="1">
       <c r="A27" s="2">
         <v>5</v>
       </c>
@@ -1922,7 +1991,7 @@
         <v>4.0184300000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15.75" thickBot="1">
       <c r="A28" s="2">
         <v>6</v>
       </c>
@@ -1981,7 +2050,7 @@
         <v>4.6454089999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15.75" thickBot="1">
       <c r="A29" s="2">
         <v>7</v>
       </c>
@@ -2040,7 +2109,7 @@
         <v>5.3474870000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15.75" thickBot="1">
       <c r="A30" s="2">
         <v>8</v>
       </c>
@@ -2099,7 +2168,7 @@
         <v>6.0936870000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15.75" thickBot="1">
       <c r="A31" s="2">
         <v>9</v>
       </c>
@@ -2158,7 +2227,7 @@
         <v>6.8726940000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15.75" thickBot="1">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -2217,7 +2286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15.75" thickBot="1">
       <c r="A34" s="2">
         <v>2</v>
       </c>
@@ -2276,7 +2345,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15.75" thickBot="1">
       <c r="A35" s="2">
         <v>3</v>
       </c>
@@ -2335,7 +2404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15.75" thickBot="1">
       <c r="A36" s="2">
         <v>4</v>
       </c>
@@ -2394,7 +2463,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15.75" thickBot="1">
       <c r="A37" s="2">
         <v>5</v>
       </c>
@@ -2453,7 +2522,7 @@
         <v>4.0184300000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15.75" thickBot="1">
       <c r="A38" s="2">
         <v>6</v>
       </c>
@@ -2512,7 +2581,7 @@
         <v>4.6454089999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15.75" thickBot="1">
       <c r="A39" s="2">
         <v>7</v>
       </c>
@@ -2571,7 +2640,7 @@
         <v>5.3474870000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15.75" thickBot="1">
       <c r="A40" s="2">
         <v>8</v>
       </c>
@@ -2630,7 +2699,7 @@
         <v>6.0936870000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15.75" thickBot="1">
       <c r="A41" s="2">
         <v>9</v>
       </c>
@@ -2689,7 +2758,7 @@
         <v>6.8726940000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15.75" thickBot="1">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -2748,7 +2817,7 @@
         <v>1.747876</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15.75" thickBot="1">
       <c r="A44" s="2">
         <v>2</v>
       </c>
@@ -2807,7 +2876,7 @@
         <v>2.1848459999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="15.75" thickBot="1">
       <c r="A45" s="2">
         <v>3</v>
       </c>
@@ -2866,7 +2935,7 @@
         <v>2.734756</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15.75" thickBot="1">
       <c r="A46" s="2">
         <v>4</v>
       </c>
@@ -2925,7 +2994,7 @@
         <v>3.3572150000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15.75" thickBot="1">
       <c r="A47" s="2">
         <v>5</v>
       </c>
@@ -2984,7 +3053,7 @@
         <v>3.9796749999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15.75" thickBot="1">
       <c r="A48" s="2">
         <v>6</v>
       </c>
@@ -3043,7 +3112,7 @@
         <v>4.6182699999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="15.75" thickBot="1">
       <c r="A49" s="2">
         <v>7</v>
       </c>
@@ -3102,7 +3171,7 @@
         <v>5.3248530000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="15.75" thickBot="1">
       <c r="A50" s="2">
         <v>8</v>
       </c>
@@ -3161,7 +3230,7 @@
         <v>6.0818320000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15.75" thickBot="1">
       <c r="A51" s="2">
         <v>9</v>
       </c>
@@ -3220,7 +3289,7 @@
         <v>6.8709769999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="15.75" thickBot="1">
       <c r="A53" s="2">
         <v>1</v>
       </c>
@@ -3279,7 +3348,7 @@
         <v>1.2941149999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="15.75" thickBot="1">
       <c r="A54" s="2">
         <v>2</v>
       </c>
@@ -3338,7 +3407,7 @@
         <v>1.6176440000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="15.75" thickBot="1">
       <c r="A55" s="2">
         <v>3</v>
       </c>
@@ -3397,7 +3466,7 @@
         <v>1.9411719999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="15.75" thickBot="1">
       <c r="A56" s="2">
         <v>4</v>
       </c>
@@ -3456,7 +3525,7 @@
         <v>2.2647010000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="15.75" thickBot="1">
       <c r="A57" s="2">
         <v>5</v>
       </c>
@@ -3515,7 +3584,7 @@
         <v>2.9807299999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="15.75" thickBot="1">
       <c r="A58" s="2">
         <v>6</v>
       </c>
@@ -3574,7 +3643,7 @@
         <v>3.8783219999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15.75" thickBot="1">
       <c r="A59" s="2">
         <v>7</v>
       </c>
@@ -3633,7 +3702,7 @@
         <v>4.7759130000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="15.75" thickBot="1">
       <c r="A60" s="2">
         <v>8</v>
       </c>
@@ -3692,7 +3761,7 @@
         <v>5.6735040000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="15.75" thickBot="1">
       <c r="A61" s="2">
         <v>9</v>
       </c>
@@ -3751,7 +3820,7 @@
         <v>6.5710949999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="15.75" thickBot="1">
       <c r="A63" s="2">
         <v>1</v>
       </c>
@@ -3810,7 +3879,7 @@
         <v>1.059874</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="15.75" thickBot="1">
       <c r="A64" s="2">
         <v>2</v>
       </c>
@@ -3869,7 +3938,7 @@
         <v>1.324843</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="15.75" thickBot="1">
       <c r="A65" s="2">
         <v>3</v>
       </c>
@@ -3928,7 +3997,7 @@
         <v>1.5898110000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="15.75" thickBot="1">
       <c r="A66" s="2">
         <v>4</v>
       </c>
@@ -3987,7 +4056,7 @@
         <v>1.8547800000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15.75" thickBot="1">
       <c r="A67" s="2">
         <v>5</v>
       </c>
@@ -4046,7 +4115,7 @@
         <v>2.4453990000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="15.75" thickBot="1">
       <c r="A68" s="2">
         <v>6</v>
       </c>
@@ -4105,7 +4174,7 @@
         <v>3.376074</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="15.75" thickBot="1">
       <c r="A69" s="2">
         <v>7</v>
       </c>
@@ -4164,7 +4233,7 @@
         <v>4.3067489999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="15.75" thickBot="1">
       <c r="A70" s="2">
         <v>8</v>
       </c>
@@ -4223,7 +4292,7 @@
         <v>5.2374239999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="15.75" thickBot="1">
       <c r="A71" s="2">
         <v>9</v>
       </c>
@@ -4282,7 +4351,7 @@
         <v>6.1680989999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="15.75" thickBot="1">
       <c r="A73" s="2">
         <v>1</v>
       </c>
@@ -4341,7 +4410,7 @@
         <v>0.90515330000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="15.75" thickBot="1">
       <c r="A74" s="2">
         <v>2</v>
       </c>
@@ -4400,7 +4469,7 @@
         <v>1.1314416</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="15.75" thickBot="1">
       <c r="A75" s="2">
         <v>3</v>
       </c>
@@ -4459,7 +4528,7 @@
         <v>1.3577299</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="15.75" thickBot="1">
       <c r="A76" s="2">
         <v>4</v>
       </c>
@@ -4518,7 +4587,7 @@
         <v>1.5840182</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="15.75" thickBot="1">
       <c r="A77" s="2">
         <v>5</v>
       </c>
@@ -4577,7 +4646,7 @@
         <v>2.0076984000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="15.75" thickBot="1">
       <c r="A78" s="2">
         <v>6</v>
       </c>
@@ -4636,7 +4705,7 @@
         <v>2.9586606999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15.75" thickBot="1">
       <c r="A79" s="2">
         <v>7</v>
       </c>
@@ -4695,7 +4764,7 @@
         <v>3.9096229999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="15.75" thickBot="1">
       <c r="A80" s="2">
         <v>8</v>
       </c>
@@ -4754,7 +4823,7 @@
         <v>4.8605853000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="15.75" thickBot="1">
       <c r="A81" s="2">
         <v>9</v>
       </c>
@@ -4813,7 +4882,7 @@
         <v>5.8115477000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -4834,7 +4903,7 @@
       <c r="R83" s="12"/>
       <c r="S83" s="7"/>
     </row>
-    <row r="84" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="15.75" thickBot="1">
       <c r="A84" s="2">
         <v>1</v>
       </c>
@@ -4893,7 +4962,7 @@
         <v>0.79329360000000004</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="15.75" thickBot="1">
       <c r="A85" s="2">
         <v>2</v>
       </c>
@@ -4952,7 +5021,7 @@
         <v>0.99161699999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="15.75" thickBot="1">
       <c r="A86" s="2">
         <v>3</v>
       </c>
@@ -5011,7 +5080,7 @@
         <v>1.1899403</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="15.75" thickBot="1">
       <c r="A87" s="2">
         <v>4</v>
       </c>
@@ -5070,7 +5139,7 @@
         <v>1.3882637</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="15.75" thickBot="1">
       <c r="A88" s="2">
         <v>5</v>
       </c>
@@ -5129,7 +5198,7 @@
         <v>1.8487115999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="15.75" thickBot="1">
       <c r="A89" s="2">
         <v>6</v>
       </c>
@@ -5188,7 +5257,7 @@
         <v>2.8048004999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="15.75" thickBot="1">
       <c r="A90" s="2">
         <v>7</v>
       </c>
@@ -5247,7 +5316,7 @@
         <v>3.7608895000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="15.75" thickBot="1">
       <c r="A91" s="2">
         <v>8</v>
       </c>
@@ -5306,7 +5375,7 @@
         <v>4.7169784000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="15.75" thickBot="1">
       <c r="A92" s="2">
         <v>9</v>
       </c>
@@ -5373,24 +5442,1139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>4</v>
+      </c>
+      <c r="D3" s="15">
+        <v>8</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="15">
+        <v>3.9738370000000001</v>
+      </c>
+      <c r="O3" s="15">
+        <v>0.55472960000000004</v>
+      </c>
+      <c r="P3" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>0</v>
+      </c>
+      <c r="R3" s="15">
+        <v>0</v>
+      </c>
+      <c r="S3" s="15">
+        <v>1.7810809999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>5</v>
+      </c>
+      <c r="D4" s="15">
+        <v>8</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="15">
+        <v>3.9738370000000001</v>
+      </c>
+      <c r="O4" s="15">
+        <v>0.55472960000000004</v>
+      </c>
+      <c r="P4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>0</v>
+      </c>
+      <c r="R4" s="15">
+        <v>0</v>
+      </c>
+      <c r="S4" s="15">
+        <v>2.2263519999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>6</v>
+      </c>
+      <c r="D5" s="15">
+        <v>8</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="15">
+        <v>3.6025689999999999</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0.47669610000000001</v>
+      </c>
+      <c r="P5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="R5" s="15">
+        <v>0</v>
+      </c>
+      <c r="S5" s="15">
+        <v>2.739824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>7</v>
+      </c>
+      <c r="D6" s="15">
+        <v>8</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>-0.9</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="N6" s="15">
+        <v>3.0653549999999998</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0.38316939999999999</v>
+      </c>
+      <c r="P6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="R6" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="S6" s="15">
+        <v>3.3178139999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>8</v>
+      </c>
+      <c r="D7" s="15">
+        <v>8</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>-0.9</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="N7" s="15">
+        <v>3.0653549999999998</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0.38316939999999999</v>
+      </c>
+      <c r="P7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="R7" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="S7" s="15">
+        <v>3.9346450000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>9</v>
+      </c>
+      <c r="D8" s="15">
+        <v>8</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>-0.9</v>
+      </c>
+      <c r="L8" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="N8" s="15">
+        <v>2.472588</v>
+      </c>
+      <c r="O8" s="15">
+        <v>0.3090735</v>
+      </c>
+      <c r="P8" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="R8" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="S8" s="15">
+        <v>4.6183389999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>10</v>
+      </c>
+      <c r="D9" s="15">
+        <v>8</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>-0.9</v>
+      </c>
+      <c r="L9" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="N9" s="15">
+        <v>2.3051020000000002</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0.2881378</v>
+      </c>
+      <c r="P9" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="R9" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="S9" s="15">
+        <v>5.3186220000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>11</v>
+      </c>
+      <c r="D10" s="15">
+        <v>8</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="L10" s="15">
+        <v>-1.2</v>
+      </c>
+      <c r="M10" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="N10" s="15">
+        <v>1.8584339999999999</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0.23230419999999999</v>
+      </c>
+      <c r="P10" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="R10" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="S10" s="15">
+        <v>6.0446530000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <v>12</v>
+      </c>
+      <c r="D11" s="15">
+        <v>8</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
+        <v>-1.3</v>
+      </c>
+      <c r="L11" s="15">
+        <v>-1.2</v>
+      </c>
+      <c r="M11" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="N11" s="15">
+        <v>1.719606</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0.21495069999999999</v>
+      </c>
+      <c r="P11" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="R11" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="S11" s="15">
+        <v>6.8205920000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>-0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="H13">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.755</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.755</v>
+      </c>
+      <c r="L13">
+        <v>0.755</v>
+      </c>
+      <c r="M13">
+        <v>0.5</v>
+      </c>
+      <c r="N13">
+        <v>5.2786597999999998</v>
+      </c>
+      <c r="O13">
+        <v>0.72886598000000002</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.0845359999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>-0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.5</v>
+      </c>
+      <c r="H14">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.755</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0.755</v>
+      </c>
+      <c r="L14">
+        <v>0.755</v>
+      </c>
+      <c r="M14">
+        <v>0.5</v>
+      </c>
+      <c r="N14">
+        <v>5.2786597999999998</v>
+      </c>
+      <c r="O14">
+        <v>0.72886598000000002</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.3556699999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>-0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+      <c r="H15">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.755</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.755</v>
+      </c>
+      <c r="L15">
+        <v>0.755</v>
+      </c>
+      <c r="M15">
+        <v>0.5</v>
+      </c>
+      <c r="N15">
+        <v>5.2786597999999998</v>
+      </c>
+      <c r="O15">
+        <v>0.72886598000000002</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.6268039999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>-0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.5</v>
+      </c>
+      <c r="H16">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.755</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0.755</v>
+      </c>
+      <c r="L16">
+        <v>0.755</v>
+      </c>
+      <c r="M16">
+        <v>0.5</v>
+      </c>
+      <c r="N16">
+        <v>5.2786597999999998</v>
+      </c>
+      <c r="O16">
+        <v>0.72886598000000002</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.8979379999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>1.8</v>
+      </c>
+      <c r="F17">
+        <v>1.5</v>
+      </c>
+      <c r="G17">
+        <v>1.7</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>-1.7</v>
+      </c>
+      <c r="L17">
+        <v>-1.8</v>
+      </c>
+      <c r="M17">
+        <v>-1.5</v>
+      </c>
+      <c r="N17">
+        <v>0.73331489999999999</v>
+      </c>
+      <c r="O17">
+        <v>7.3331489999999999E-2</v>
+      </c>
+      <c r="P17">
+        <v>1.8</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>1.2</v>
+      </c>
+      <c r="S17">
+        <v>2.413348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>1.8</v>
+      </c>
+      <c r="F18">
+        <v>1.5</v>
+      </c>
+      <c r="G18">
+        <v>1.7</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>-1.7</v>
+      </c>
+      <c r="L18">
+        <v>-1.8</v>
+      </c>
+      <c r="M18">
+        <v>-1.5</v>
+      </c>
+      <c r="N18">
+        <v>0.73331489999999999</v>
+      </c>
+      <c r="O18">
+        <v>7.3331489999999999E-2</v>
+      </c>
+      <c r="P18">
+        <v>1.8</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>1.2</v>
+      </c>
+      <c r="S18">
+        <v>3.340017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>1.8</v>
+      </c>
+      <c r="F19">
+        <v>1.5</v>
+      </c>
+      <c r="G19">
+        <v>1.7</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>-1.7</v>
+      </c>
+      <c r="L19">
+        <v>-1.8</v>
+      </c>
+      <c r="M19">
+        <v>-1.5</v>
+      </c>
+      <c r="N19">
+        <v>0.73331489999999999</v>
+      </c>
+      <c r="O19">
+        <v>7.3331489999999999E-2</v>
+      </c>
+      <c r="P19">
+        <v>1.8</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>1.2</v>
+      </c>
+      <c r="S19">
+        <v>4.2666849999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>1.8</v>
+      </c>
+      <c r="F20">
+        <v>1.5</v>
+      </c>
+      <c r="G20">
+        <v>1.7</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>-1.7</v>
+      </c>
+      <c r="L20">
+        <v>-1.8</v>
+      </c>
+      <c r="M20">
+        <v>-1.5</v>
+      </c>
+      <c r="N20">
+        <v>0.73331489999999999</v>
+      </c>
+      <c r="O20">
+        <v>7.3331489999999999E-2</v>
+      </c>
+      <c r="P20">
+        <v>1.8</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>1.2</v>
+      </c>
+      <c r="S20">
+        <v>5.1933540000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>1.8</v>
+      </c>
+      <c r="F21">
+        <v>1.5</v>
+      </c>
+      <c r="G21">
+        <v>1.7</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>-1.7</v>
+      </c>
+      <c r="L21">
+        <v>-1.8</v>
+      </c>
+      <c r="M21">
+        <v>-1.5</v>
+      </c>
+      <c r="N21">
+        <v>0.73331489999999999</v>
+      </c>
+      <c r="O21">
+        <v>7.3331489999999999E-2</v>
+      </c>
+      <c r="P21">
+        <v>1.8</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>1.2</v>
+      </c>
+      <c r="S21">
+        <v>6.1200219999999996</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WA WB 4 to 12.xlsx
+++ b/WA WB 4 to 12.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>al</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>sy=1.2</t>
+  </si>
+  <si>
+    <t>sy</t>
+  </si>
+  <si>
+    <t>sz</t>
   </si>
 </sst>
 </file>
@@ -5442,608 +5451,668 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:U131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1">
       <c r="A2" s="13"/>
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="R2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="S2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="T2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1">
       <c r="A3" s="13">
         <v>1</v>
       </c>
       <c r="B3" s="15">
         <v>0</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
         <v>4</v>
       </c>
-      <c r="D3" s="15">
+      <c r="F3" s="15">
         <v>8</v>
       </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15">
-        <v>-0.5</v>
-      </c>
       <c r="G3" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H3" s="15">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I3" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
         <v>0.46400000000000002</v>
       </c>
-      <c r="J3" s="15">
-        <v>0</v>
-      </c>
-      <c r="K3" s="15">
-        <v>-0.5</v>
-      </c>
       <c r="L3" s="15">
+        <v>0</v>
+      </c>
+      <c r="M3" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="N3" s="15">
         <v>0.46400000000000002</v>
       </c>
-      <c r="M3" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="15">
+      <c r="O3" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P3" s="15">
         <v>3.9738370000000001</v>
       </c>
-      <c r="O3" s="15">
+      <c r="Q3" s="15">
         <v>0.55472960000000004</v>
       </c>
-      <c r="P3" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="15">
-        <v>0</v>
-      </c>
       <c r="R3" s="15">
         <v>0</v>
       </c>
       <c r="S3" s="15">
+        <v>0</v>
+      </c>
+      <c r="T3" s="15">
+        <v>0</v>
+      </c>
+      <c r="U3" s="15">
         <v>1.7810809999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1">
       <c r="A4" s="13">
         <v>2</v>
       </c>
       <c r="B4" s="15">
         <v>0</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
         <v>5</v>
       </c>
-      <c r="D4" s="15">
+      <c r="F4" s="15">
         <v>8</v>
       </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15">
-        <v>-0.5</v>
-      </c>
       <c r="G4" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H4" s="15">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
         <v>0.46400000000000002</v>
       </c>
-      <c r="J4" s="15">
-        <v>0</v>
-      </c>
-      <c r="K4" s="15">
-        <v>-0.5</v>
-      </c>
       <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="N4" s="15">
         <v>0.46400000000000002</v>
       </c>
-      <c r="M4" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="N4" s="15">
+      <c r="O4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="15">
         <v>3.9738370000000001</v>
       </c>
-      <c r="O4" s="15">
+      <c r="Q4" s="15">
         <v>0.55472960000000004</v>
       </c>
-      <c r="P4" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="15">
-        <v>0</v>
-      </c>
       <c r="R4" s="15">
         <v>0</v>
       </c>
       <c r="S4" s="15">
+        <v>0</v>
+      </c>
+      <c r="T4" s="15">
+        <v>0</v>
+      </c>
+      <c r="U4" s="15">
         <v>2.2263519999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1">
       <c r="A5" s="13">
         <v>3</v>
       </c>
       <c r="B5" s="15">
         <v>0</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
         <v>6</v>
       </c>
-      <c r="D5" s="15">
+      <c r="F5" s="15">
         <v>8</v>
       </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
         <v>-0.1</v>
       </c>
-      <c r="G5" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
       <c r="I5" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
         <v>0.21099999999999999</v>
       </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>-0.5</v>
-      </c>
       <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="N5" s="15">
         <v>0.21099999999999999</v>
       </c>
-      <c r="M5" s="15">
+      <c r="O5" s="15">
         <v>0.1</v>
       </c>
-      <c r="N5" s="15">
+      <c r="P5" s="15">
         <v>3.6025689999999999</v>
       </c>
-      <c r="O5" s="15">
+      <c r="Q5" s="15">
         <v>0.47669610000000001</v>
       </c>
-      <c r="P5" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="15">
+      <c r="R5" s="15">
+        <v>0</v>
+      </c>
+      <c r="S5" s="15">
         <v>0.4</v>
       </c>
-      <c r="R5" s="15">
-        <v>0</v>
-      </c>
-      <c r="S5" s="15">
+      <c r="T5" s="15">
+        <v>0</v>
+      </c>
+      <c r="U5" s="15">
         <v>2.739824</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1">
       <c r="A6" s="13">
         <v>4</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
         <v>7</v>
       </c>
-      <c r="D6" s="15">
+      <c r="F6" s="15">
         <v>8</v>
       </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
         <v>0.1</v>
       </c>
-      <c r="G6" s="15">
+      <c r="I6" s="15">
         <v>0.9</v>
       </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
       <c r="J6" s="15">
         <v>0</v>
       </c>
       <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
         <v>-0.9</v>
       </c>
-      <c r="L6" s="15">
-        <v>0</v>
-      </c>
-      <c r="M6" s="15">
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="15">
         <v>-0.1</v>
       </c>
-      <c r="N6" s="15">
+      <c r="P6" s="15">
         <v>3.0653549999999998</v>
       </c>
-      <c r="O6" s="15">
+      <c r="Q6" s="15">
         <v>0.38316939999999999</v>
       </c>
-      <c r="P6" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="15">
+      <c r="R6" s="15">
+        <v>0</v>
+      </c>
+      <c r="S6" s="15">
         <v>0.6</v>
       </c>
-      <c r="R6" s="15">
+      <c r="T6" s="15">
         <v>0.4</v>
       </c>
-      <c r="S6" s="15">
+      <c r="U6" s="15">
         <v>3.3178139999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1">
       <c r="A7" s="13">
         <v>5</v>
       </c>
       <c r="B7" s="15">
         <v>0</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
         <v>8</v>
       </c>
-      <c r="D7" s="15">
+      <c r="F7" s="15">
         <v>8</v>
       </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
         <v>0.1</v>
       </c>
-      <c r="G7" s="15">
+      <c r="I7" s="15">
         <v>0.9</v>
       </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
       <c r="J7" s="15">
         <v>0</v>
       </c>
       <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
         <v>-0.9</v>
       </c>
-      <c r="L7" s="15">
-        <v>0</v>
-      </c>
-      <c r="M7" s="15">
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15">
         <v>-0.1</v>
       </c>
-      <c r="N7" s="15">
+      <c r="P7" s="15">
         <v>3.0653549999999998</v>
       </c>
-      <c r="O7" s="15">
+      <c r="Q7" s="15">
         <v>0.38316939999999999</v>
       </c>
-      <c r="P7" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="15">
+      <c r="R7" s="15">
+        <v>0</v>
+      </c>
+      <c r="S7" s="15">
         <v>0.6</v>
       </c>
-      <c r="R7" s="15">
+      <c r="T7" s="15">
         <v>0.4</v>
       </c>
-      <c r="S7" s="15">
+      <c r="U7" s="15">
         <v>3.9346450000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1">
       <c r="A8" s="13">
         <v>6</v>
       </c>
       <c r="B8" s="15">
         <v>0</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
         <v>9</v>
       </c>
-      <c r="D8" s="15">
+      <c r="F8" s="15">
         <v>8</v>
       </c>
-      <c r="E8" s="15">
+      <c r="G8" s="15">
         <v>0.8</v>
       </c>
-      <c r="F8" s="15">
+      <c r="H8" s="15">
         <v>-0.1</v>
       </c>
-      <c r="G8" s="15">
+      <c r="I8" s="15">
         <v>0.9</v>
       </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>0</v>
-      </c>
       <c r="J8" s="15">
         <v>0</v>
       </c>
       <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="15">
         <v>-0.9</v>
       </c>
-      <c r="L8" s="15">
+      <c r="N8" s="15">
         <v>-0.8</v>
       </c>
-      <c r="M8" s="15">
+      <c r="O8" s="15">
         <v>0.1</v>
       </c>
-      <c r="N8" s="15">
+      <c r="P8" s="15">
         <v>2.472588</v>
       </c>
-      <c r="O8" s="15">
+      <c r="Q8" s="15">
         <v>0.3090735</v>
       </c>
-      <c r="P8" s="15">
+      <c r="R8" s="15">
         <v>0.8</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="S8" s="15">
         <v>0.4</v>
       </c>
-      <c r="R8" s="15">
+      <c r="T8" s="15">
         <v>0.4</v>
       </c>
-      <c r="S8" s="15">
+      <c r="U8" s="15">
         <v>4.6183389999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1">
       <c r="A9" s="13">
         <v>7</v>
       </c>
       <c r="B9" s="15">
         <v>0</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15">
         <v>10</v>
       </c>
-      <c r="D9" s="15">
+      <c r="F9" s="15">
         <v>8</v>
       </c>
-      <c r="E9" s="15">
+      <c r="G9" s="15">
         <v>1</v>
       </c>
-      <c r="F9" s="15">
+      <c r="H9" s="15">
         <v>-0.1</v>
       </c>
-      <c r="G9" s="15">
+      <c r="I9" s="15">
         <v>0.9</v>
       </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>0</v>
-      </c>
       <c r="J9" s="15">
         <v>0</v>
       </c>
       <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="15">
         <v>-0.9</v>
       </c>
-      <c r="L9" s="15">
+      <c r="N9" s="15">
         <v>-1</v>
       </c>
-      <c r="M9" s="15">
+      <c r="O9" s="15">
         <v>0.1</v>
       </c>
-      <c r="N9" s="15">
+      <c r="P9" s="15">
         <v>2.3051020000000002</v>
       </c>
-      <c r="O9" s="15">
+      <c r="Q9" s="15">
         <v>0.2881378</v>
       </c>
-      <c r="P9" s="15">
+      <c r="R9" s="15">
         <v>1</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="S9" s="15">
         <v>0.4</v>
       </c>
-      <c r="R9" s="15">
+      <c r="T9" s="15">
         <v>0.4</v>
       </c>
-      <c r="S9" s="15">
+      <c r="U9" s="15">
         <v>5.3186220000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1">
+    <row r="10" spans="1:21" ht="15.75" thickBot="1">
       <c r="A10" s="13">
         <v>8</v>
       </c>
       <c r="B10" s="15">
         <v>0</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15">
         <v>11</v>
       </c>
-      <c r="D10" s="15">
+      <c r="F10" s="15">
         <v>8</v>
       </c>
-      <c r="E10" s="15">
+      <c r="G10" s="15">
         <v>1.2</v>
       </c>
-      <c r="F10" s="15">
+      <c r="H10" s="15">
         <v>0.1</v>
       </c>
-      <c r="G10" s="15">
+      <c r="I10" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H10" s="15">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15">
-        <v>0</v>
-      </c>
       <c r="J10" s="15">
         <v>0</v>
       </c>
       <c r="K10" s="15">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
+        <v>0</v>
+      </c>
+      <c r="M10" s="15">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="L10" s="15">
+      <c r="N10" s="15">
         <v>-1.2</v>
       </c>
-      <c r="M10" s="15">
+      <c r="O10" s="15">
         <v>-0.1</v>
       </c>
-      <c r="N10" s="15">
+      <c r="P10" s="15">
         <v>1.8584339999999999</v>
       </c>
-      <c r="O10" s="15">
+      <c r="Q10" s="15">
         <v>0.23230419999999999</v>
       </c>
-      <c r="P10" s="15">
+      <c r="R10" s="15">
         <v>1.2</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="S10" s="15">
         <v>0.6</v>
       </c>
-      <c r="R10" s="15">
+      <c r="T10" s="15">
         <v>0.6</v>
       </c>
-      <c r="S10" s="15">
+      <c r="U10" s="15">
         <v>6.0446530000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1">
       <c r="A11" s="13">
         <v>9</v>
       </c>
       <c r="B11" s="15">
         <v>0</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15">
         <v>12</v>
       </c>
-      <c r="D11" s="15">
+      <c r="F11" s="15">
         <v>8</v>
       </c>
-      <c r="E11" s="15">
+      <c r="G11" s="15">
         <v>1.2</v>
       </c>
-      <c r="F11" s="15">
+      <c r="H11" s="15">
         <v>0.1</v>
       </c>
-      <c r="G11" s="15">
+      <c r="I11" s="15">
         <v>1.3</v>
       </c>
-      <c r="H11" s="15">
-        <v>0</v>
-      </c>
-      <c r="I11" s="15">
-        <v>0</v>
-      </c>
       <c r="J11" s="15">
         <v>0</v>
       </c>
       <c r="K11" s="15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
         <v>-1.3</v>
       </c>
-      <c r="L11" s="15">
+      <c r="N11" s="15">
         <v>-1.2</v>
       </c>
-      <c r="M11" s="15">
+      <c r="O11" s="15">
         <v>-0.1</v>
       </c>
-      <c r="N11" s="15">
+      <c r="P11" s="15">
         <v>1.719606</v>
       </c>
-      <c r="O11" s="15">
+      <c r="Q11" s="15">
         <v>0.21495069999999999</v>
       </c>
-      <c r="P11" s="15">
+      <c r="R11" s="15">
         <v>1.2</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="S11" s="15">
         <v>0.6</v>
       </c>
-      <c r="R11" s="15">
+      <c r="T11" s="15">
         <v>0.8</v>
       </c>
-      <c r="S11" s="15">
+      <c r="U11" s="15">
         <v>6.8205920000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>1</v>
       </c>
@@ -6051,58 +6120,64 @@
         <v>0</v>
       </c>
       <c r="C13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>10</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>-0.5</v>
-      </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H13">
+        <v>-0.5</v>
+      </c>
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="J13">
         <v>1.2549999999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.755</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
       </c>
       <c r="K13">
         <v>0.755</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>0.755</v>
       </c>
-      <c r="M13">
-        <v>0.5</v>
-      </c>
       <c r="N13">
+        <v>0.755</v>
+      </c>
+      <c r="O13">
+        <v>0.5</v>
+      </c>
+      <c r="P13">
         <v>5.2786597999999998</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>0.72886598000000002</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
         <v>1.0845359999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>2</v>
       </c>
@@ -6110,58 +6185,64 @@
         <v>0</v>
       </c>
       <c r="C14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>5</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>10</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>-0.5</v>
-      </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H14">
+        <v>-0.5</v>
+      </c>
+      <c r="I14">
+        <v>0.5</v>
+      </c>
+      <c r="J14">
         <v>1.2549999999999999</v>
-      </c>
-      <c r="I14">
-        <v>0.755</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
       </c>
       <c r="K14">
         <v>0.755</v>
       </c>
       <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>0.755</v>
       </c>
-      <c r="M14">
-        <v>0.5</v>
-      </c>
       <c r="N14">
+        <v>0.755</v>
+      </c>
+      <c r="O14">
+        <v>0.5</v>
+      </c>
+      <c r="P14">
         <v>5.2786597999999998</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>0.72886598000000002</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
         <v>1.3556699999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>3</v>
       </c>
@@ -6169,58 +6250,64 @@
         <v>0</v>
       </c>
       <c r="C15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>6</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>10</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>-0.5</v>
-      </c>
       <c r="G15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H15">
+        <v>-0.5</v>
+      </c>
+      <c r="I15">
+        <v>0.5</v>
+      </c>
+      <c r="J15">
         <v>1.2549999999999999</v>
-      </c>
-      <c r="I15">
-        <v>0.755</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
       </c>
       <c r="K15">
         <v>0.755</v>
       </c>
       <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>0.755</v>
       </c>
-      <c r="M15">
-        <v>0.5</v>
-      </c>
       <c r="N15">
+        <v>0.755</v>
+      </c>
+      <c r="O15">
+        <v>0.5</v>
+      </c>
+      <c r="P15">
         <v>5.2786597999999998</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>0.72886598000000002</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
         <v>1.6268039999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>4</v>
       </c>
@@ -6228,58 +6315,64 @@
         <v>0</v>
       </c>
       <c r="C16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>7</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>10</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>-0.5</v>
-      </c>
       <c r="G16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H16">
+        <v>-0.5</v>
+      </c>
+      <c r="I16">
+        <v>0.5</v>
+      </c>
+      <c r="J16">
         <v>1.2549999999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.755</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
       </c>
       <c r="K16">
         <v>0.755</v>
       </c>
       <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>0.755</v>
       </c>
-      <c r="M16">
-        <v>0.5</v>
-      </c>
       <c r="N16">
+        <v>0.755</v>
+      </c>
+      <c r="O16">
+        <v>0.5</v>
+      </c>
+      <c r="P16">
         <v>5.2786597999999998</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>0.72886598000000002</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <v>1.8979379999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:21">
       <c r="A17">
         <v>5</v>
       </c>
@@ -6287,58 +6380,64 @@
         <v>0</v>
       </c>
       <c r="C17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>8</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>10</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>1.8</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>1.5</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>1.7</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>-1.7</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>-1.8</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>-1.5</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>0.73331489999999999</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>7.3331489999999999E-2</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>1.8</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>2</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>1.2</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>2.413348</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:21">
       <c r="A18">
         <v>6</v>
       </c>
@@ -6346,58 +6445,64 @@
         <v>0</v>
       </c>
       <c r="C18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>9</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>10</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>1.8</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>1.5</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>1.7</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>-1.7</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>-1.8</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>-1.5</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>0.73331489999999999</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>7.3331489999999999E-2</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>1.8</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>2</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>1.2</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>3.340017</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:21">
       <c r="A19">
         <v>7</v>
       </c>
@@ -6405,58 +6510,64 @@
         <v>0</v>
       </c>
       <c r="C19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>10</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>10</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>1.8</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>1.5</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>1.7</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>-1.7</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>-1.8</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>-1.5</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>0.73331489999999999</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>7.3331489999999999E-2</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>1.8</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>2</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>1.2</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>4.2666849999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:21">
       <c r="A20">
         <v>8</v>
       </c>
@@ -6464,58 +6575,64 @@
         <v>0</v>
       </c>
       <c r="C20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>11</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>10</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>1.8</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>1.5</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>1.7</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>-1.7</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>-1.8</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>-1.5</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>0.73331489999999999</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>7.3331489999999999E-2</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>1.8</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>2</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>1.2</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>5.1933540000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:21">
       <c r="A21">
         <v>9</v>
       </c>
@@ -6523,55 +6640,6565 @@
         <v>0</v>
       </c>
       <c r="C21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>12</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>10</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>1.8</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>1.5</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>1.7</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>-1.7</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>-1.8</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>-1.5</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>0.73331489999999999</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>7.3331489999999999E-2</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>1.8</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>2</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>1.2</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>6.1200219999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1.2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>-0.5</v>
+      </c>
+      <c r="I24">
+        <v>0.5</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>-0.5</v>
+      </c>
+      <c r="N24">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.5</v>
+      </c>
+      <c r="P24">
+        <v>3.935724</v>
+      </c>
+      <c r="Q24">
+        <v>0.54759049999999998</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>2.2620469999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1.2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>5.2</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>-0.5</v>
+      </c>
+      <c r="I25">
+        <v>0.5</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>-0.5</v>
+      </c>
+      <c r="N25">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.5</v>
+      </c>
+      <c r="P25">
+        <v>3.935724</v>
+      </c>
+      <c r="Q25">
+        <v>0.54759049999999998</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>2.3525290000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1.2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>5.4</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>-0.5</v>
+      </c>
+      <c r="I26">
+        <v>0.5</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>-0.5</v>
+      </c>
+      <c r="N26">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.5</v>
+      </c>
+      <c r="P26">
+        <v>3.935724</v>
+      </c>
+      <c r="Q26">
+        <v>0.54759049999999998</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>2.4430109999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1.2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>5.6</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>-0.1</v>
+      </c>
+      <c r="I27">
+        <v>0.5</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>-0.5</v>
+      </c>
+      <c r="N27">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.1</v>
+      </c>
+      <c r="P27">
+        <v>3.5948169999999999</v>
+      </c>
+      <c r="Q27">
+        <v>0.47460210000000003</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0.4</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>2.5422280000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1.2</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>5.8</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>-0.1</v>
+      </c>
+      <c r="I28">
+        <v>0.5</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>-0.5</v>
+      </c>
+      <c r="N28">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.1</v>
+      </c>
+      <c r="P28">
+        <v>3.5948169999999999</v>
+      </c>
+      <c r="Q28">
+        <v>0.47460210000000003</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0.4</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>2.6473080000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1.2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>-0.1</v>
+      </c>
+      <c r="I29">
+        <v>0.5</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>-0.5</v>
+      </c>
+      <c r="N29">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="O29">
+        <v>0.1</v>
+      </c>
+      <c r="P29">
+        <v>3.5948169999999999</v>
+      </c>
+      <c r="Q29">
+        <v>0.47460210000000003</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0.4</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>2.7523870000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1.2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>6.2</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>-0.1</v>
+      </c>
+      <c r="I30">
+        <v>0.5</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>-0.5</v>
+      </c>
+      <c r="N30">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.1</v>
+      </c>
+      <c r="P30">
+        <v>3.5948169999999999</v>
+      </c>
+      <c r="Q30">
+        <v>0.47460210000000003</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0.4</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>2.8574670000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1.2</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>6.4</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>-0.1</v>
+      </c>
+      <c r="I31">
+        <v>0.5</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>-0.5</v>
+      </c>
+      <c r="N31">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.1</v>
+      </c>
+      <c r="P31">
+        <v>3.5948169999999999</v>
+      </c>
+      <c r="Q31">
+        <v>0.47460210000000003</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0.4</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>2.9625460000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>1.2</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>6.6</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>0.8</v>
+      </c>
+      <c r="H32">
+        <v>-0.1</v>
+      </c>
+      <c r="I32">
+        <v>0.5</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>-0.5</v>
+      </c>
+      <c r="N32">
+        <v>-0.8</v>
+      </c>
+      <c r="O32">
+        <v>0.1</v>
+      </c>
+      <c r="P32">
+        <v>2.8258000000000001</v>
+      </c>
+      <c r="Q32">
+        <v>0.35322500000000001</v>
+      </c>
+      <c r="R32">
+        <v>0.8</v>
+      </c>
+      <c r="S32">
+        <v>0.4</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>3.0687150000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1.2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>6.8</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>0.8</v>
+      </c>
+      <c r="H33">
+        <v>-0.1</v>
+      </c>
+      <c r="I33">
+        <v>0.5</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>-0.5</v>
+      </c>
+      <c r="N33">
+        <v>-0.8</v>
+      </c>
+      <c r="O33">
+        <v>0.1</v>
+      </c>
+      <c r="P33">
+        <v>2.8258000000000001</v>
+      </c>
+      <c r="Q33">
+        <v>0.35322500000000001</v>
+      </c>
+      <c r="R33">
+        <v>0.8</v>
+      </c>
+      <c r="S33">
+        <v>0.4</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>3.19807</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1.2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <v>0.8</v>
+      </c>
+      <c r="H34">
+        <v>-0.1</v>
+      </c>
+      <c r="I34">
+        <v>0.5</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>-0.5</v>
+      </c>
+      <c r="N34">
+        <v>-0.8</v>
+      </c>
+      <c r="O34">
+        <v>0.1</v>
+      </c>
+      <c r="P34">
+        <v>2.8258000000000001</v>
+      </c>
+      <c r="Q34">
+        <v>0.35322500000000001</v>
+      </c>
+      <c r="R34">
+        <v>0.8</v>
+      </c>
+      <c r="S34">
+        <v>0.4</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>3.3274249999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" thickBot="1"/>
+    <row r="36" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="P36" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S36" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="T36" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="U36" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1.2</v>
+      </c>
+      <c r="D37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>-0.5</v>
+      </c>
+      <c r="I37">
+        <v>0.5</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>-0.5</v>
+      </c>
+      <c r="N37">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="O37">
+        <v>0.5</v>
+      </c>
+      <c r="P37">
+        <v>3.9767939999999999</v>
+      </c>
+      <c r="Q37">
+        <v>0.5502243</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>2.2488790000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1.2</v>
+      </c>
+      <c r="D38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E38">
+        <v>5.2</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0.1</v>
+      </c>
+      <c r="I38">
+        <v>0.5</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>-0.5</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>-0.1</v>
+      </c>
+      <c r="P38">
+        <v>3.4698370000000001</v>
+      </c>
+      <c r="Q38">
+        <v>0.4337297</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0.6</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>2.3446060000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1.2</v>
+      </c>
+      <c r="D39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E39">
+        <v>5.4</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.1</v>
+      </c>
+      <c r="I39">
+        <v>0.5</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>-0.5</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>-0.1</v>
+      </c>
+      <c r="P39">
+        <v>3.4698370000000001</v>
+      </c>
+      <c r="Q39">
+        <v>0.4337297</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0.6</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>2.4578600000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>1.2</v>
+      </c>
+      <c r="D40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E40">
+        <v>5.6</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.1</v>
+      </c>
+      <c r="I40">
+        <v>0.5</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>-0.5</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>-0.1</v>
+      </c>
+      <c r="P40">
+        <v>3.4698370000000001</v>
+      </c>
+      <c r="Q40">
+        <v>0.4337297</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0.6</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>2.5711140000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1.2</v>
+      </c>
+      <c r="D41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E41">
+        <v>5.8</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0.1</v>
+      </c>
+      <c r="I41">
+        <v>0.5</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>-0.5</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>-0.1</v>
+      </c>
+      <c r="P41">
+        <v>3.4698370000000001</v>
+      </c>
+      <c r="Q41">
+        <v>0.4337297</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0.6</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>2.6843680000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1.2</v>
+      </c>
+      <c r="D42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0.1</v>
+      </c>
+      <c r="I42">
+        <v>0.5</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-0.5</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>-0.1</v>
+      </c>
+      <c r="P42">
+        <v>3.4698370000000001</v>
+      </c>
+      <c r="Q42">
+        <v>0.4337297</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0.6</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>2.7976220000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>1.2</v>
+      </c>
+      <c r="D43">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E43">
+        <v>6.2</v>
+      </c>
+      <c r="F43">
+        <v>8</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0.1</v>
+      </c>
+      <c r="I43">
+        <v>0.5</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-0.5</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>-0.1</v>
+      </c>
+      <c r="P43">
+        <v>3.4698370000000001</v>
+      </c>
+      <c r="Q43">
+        <v>0.4337297</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0.6</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>2.910876</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>1.2</v>
+      </c>
+      <c r="D44">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E44">
+        <v>6.4</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.1</v>
+      </c>
+      <c r="I44">
+        <v>0.5</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-0.5</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>-0.1</v>
+      </c>
+      <c r="P44">
+        <v>3.4698370000000001</v>
+      </c>
+      <c r="Q44">
+        <v>0.4337297</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0.6</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>3.02413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1.2</v>
+      </c>
+      <c r="D45">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E45">
+        <v>6.6</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0.1</v>
+      </c>
+      <c r="I45">
+        <v>0.5</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>-0.5</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>-0.1</v>
+      </c>
+      <c r="P45">
+        <v>3.4698370000000001</v>
+      </c>
+      <c r="Q45">
+        <v>0.4337297</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0.6</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>3.137384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1.2</v>
+      </c>
+      <c r="D46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E46">
+        <v>6.8</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>-0.5</v>
+      </c>
+      <c r="I46">
+        <v>0.5</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>-0.5</v>
+      </c>
+      <c r="N46">
+        <v>-1</v>
+      </c>
+      <c r="O46">
+        <v>0.5</v>
+      </c>
+      <c r="P46">
+        <v>2.9972180000000002</v>
+      </c>
+      <c r="Q46">
+        <v>0.37465229999999999</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>3.252364</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1.2</v>
+      </c>
+      <c r="D47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>-0.5</v>
+      </c>
+      <c r="I47">
+        <v>0.5</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-0.5</v>
+      </c>
+      <c r="N47">
+        <v>-1</v>
+      </c>
+      <c r="O47">
+        <v>0.5</v>
+      </c>
+      <c r="P47">
+        <v>2.9972180000000002</v>
+      </c>
+      <c r="Q47">
+        <v>0.37465229999999999</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>3.377434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="15.75" thickBot="1"/>
+    <row r="49" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A49" s="13">
+        <v>1</v>
+      </c>
+      <c r="B49" s="15">
+        <v>0</v>
+      </c>
+      <c r="C49" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D49" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E49" s="15">
+        <v>5</v>
+      </c>
+      <c r="F49" s="15">
+        <v>8</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P49" s="15">
+        <v>3.4622760000000001</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>0.43278450000000002</v>
+      </c>
+      <c r="R49" s="15">
+        <v>0</v>
+      </c>
+      <c r="S49" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>2.236078</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A50" s="13">
+        <v>2</v>
+      </c>
+      <c r="B50" s="15">
+        <v>0</v>
+      </c>
+      <c r="C50" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D50" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E50" s="15">
+        <v>5.2</v>
+      </c>
+      <c r="F50" s="15">
+        <v>8</v>
+      </c>
+      <c r="G50" s="15">
+        <v>0</v>
+      </c>
+      <c r="H50" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="I50" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J50" s="15">
+        <v>0</v>
+      </c>
+      <c r="K50" s="15">
+        <v>0</v>
+      </c>
+      <c r="L50" s="15">
+        <v>0</v>
+      </c>
+      <c r="M50" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="N50" s="15">
+        <v>0</v>
+      </c>
+      <c r="O50" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P50" s="15">
+        <v>3.4622760000000001</v>
+      </c>
+      <c r="Q50" s="15">
+        <v>0.43278450000000002</v>
+      </c>
+      <c r="R50" s="15">
+        <v>0</v>
+      </c>
+      <c r="S50" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T50" s="15">
+        <v>0</v>
+      </c>
+      <c r="U50" s="15">
+        <v>2.3495210000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A51" s="13">
+        <v>3</v>
+      </c>
+      <c r="B51" s="15">
+        <v>0</v>
+      </c>
+      <c r="C51" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D51" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E51" s="15">
+        <v>5.4</v>
+      </c>
+      <c r="F51" s="15">
+        <v>8</v>
+      </c>
+      <c r="G51" s="15">
+        <v>0</v>
+      </c>
+      <c r="H51" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="I51" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="N51" s="15">
+        <v>0</v>
+      </c>
+      <c r="O51" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P51" s="15">
+        <v>3.4622760000000001</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>0.43278450000000002</v>
+      </c>
+      <c r="R51" s="15">
+        <v>0</v>
+      </c>
+      <c r="S51" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T51" s="15">
+        <v>0</v>
+      </c>
+      <c r="U51" s="15">
+        <v>2.4629639999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A52" s="13">
+        <v>4</v>
+      </c>
+      <c r="B52" s="15">
+        <v>0</v>
+      </c>
+      <c r="C52" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D52" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E52" s="15">
+        <v>5.6</v>
+      </c>
+      <c r="F52" s="15">
+        <v>8</v>
+      </c>
+      <c r="G52" s="15">
+        <v>0</v>
+      </c>
+      <c r="H52" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="I52" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J52" s="15">
+        <v>0</v>
+      </c>
+      <c r="K52" s="15">
+        <v>0</v>
+      </c>
+      <c r="L52" s="15">
+        <v>0</v>
+      </c>
+      <c r="M52" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="N52" s="15">
+        <v>0</v>
+      </c>
+      <c r="O52" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P52" s="15">
+        <v>3.4622760000000001</v>
+      </c>
+      <c r="Q52" s="15">
+        <v>0.43278450000000002</v>
+      </c>
+      <c r="R52" s="15">
+        <v>0</v>
+      </c>
+      <c r="S52" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T52" s="15">
+        <v>0</v>
+      </c>
+      <c r="U52" s="15">
+        <v>2.5764070000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A53" s="13">
+        <v>5</v>
+      </c>
+      <c r="B53" s="15">
+        <v>0</v>
+      </c>
+      <c r="C53" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D53" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E53" s="15">
+        <v>5.8</v>
+      </c>
+      <c r="F53" s="15">
+        <v>8</v>
+      </c>
+      <c r="G53" s="15">
+        <v>0</v>
+      </c>
+      <c r="H53" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="I53" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="N53" s="15">
+        <v>0</v>
+      </c>
+      <c r="O53" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P53" s="15">
+        <v>3.4622760000000001</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>0.43278450000000002</v>
+      </c>
+      <c r="R53" s="15">
+        <v>0</v>
+      </c>
+      <c r="S53" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T53" s="15">
+        <v>0</v>
+      </c>
+      <c r="U53" s="15">
+        <v>2.6898499999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A54" s="13">
+        <v>6</v>
+      </c>
+      <c r="B54" s="15">
+        <v>0</v>
+      </c>
+      <c r="C54" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D54" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E54" s="15">
+        <v>6</v>
+      </c>
+      <c r="F54" s="15">
+        <v>8</v>
+      </c>
+      <c r="G54" s="15">
+        <v>0</v>
+      </c>
+      <c r="H54" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="I54" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J54" s="15">
+        <v>0</v>
+      </c>
+      <c r="K54" s="15">
+        <v>0</v>
+      </c>
+      <c r="L54" s="15">
+        <v>0</v>
+      </c>
+      <c r="M54" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="N54" s="15">
+        <v>0</v>
+      </c>
+      <c r="O54" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P54" s="15">
+        <v>3.4622760000000001</v>
+      </c>
+      <c r="Q54" s="15">
+        <v>0.43278450000000002</v>
+      </c>
+      <c r="R54" s="15">
+        <v>0</v>
+      </c>
+      <c r="S54" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T54" s="15">
+        <v>0</v>
+      </c>
+      <c r="U54" s="15">
+        <v>2.803293</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A55" s="13">
+        <v>7</v>
+      </c>
+      <c r="B55" s="15">
+        <v>0</v>
+      </c>
+      <c r="C55" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D55" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E55" s="15">
+        <v>6.2</v>
+      </c>
+      <c r="F55" s="15">
+        <v>8</v>
+      </c>
+      <c r="G55" s="15">
+        <v>0</v>
+      </c>
+      <c r="H55" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="I55" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="N55" s="15">
+        <v>0</v>
+      </c>
+      <c r="O55" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P55" s="15">
+        <v>3.4622760000000001</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>0.43278450000000002</v>
+      </c>
+      <c r="R55" s="15">
+        <v>0</v>
+      </c>
+      <c r="S55" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T55" s="15">
+        <v>0</v>
+      </c>
+      <c r="U55" s="15">
+        <v>2.9167360000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A56" s="13">
+        <v>8</v>
+      </c>
+      <c r="B56" s="15">
+        <v>0</v>
+      </c>
+      <c r="C56" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D56" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E56" s="15">
+        <v>6.4</v>
+      </c>
+      <c r="F56" s="15">
+        <v>8</v>
+      </c>
+      <c r="G56" s="15">
+        <v>0</v>
+      </c>
+      <c r="H56" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="I56" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J56" s="15">
+        <v>0</v>
+      </c>
+      <c r="K56" s="15">
+        <v>0</v>
+      </c>
+      <c r="L56" s="15">
+        <v>0</v>
+      </c>
+      <c r="M56" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="N56" s="15">
+        <v>0</v>
+      </c>
+      <c r="O56" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P56" s="15">
+        <v>3.4622760000000001</v>
+      </c>
+      <c r="Q56" s="15">
+        <v>0.43278450000000002</v>
+      </c>
+      <c r="R56" s="15">
+        <v>0</v>
+      </c>
+      <c r="S56" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T56" s="15">
+        <v>0</v>
+      </c>
+      <c r="U56" s="15">
+        <v>3.030179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A57" s="13">
+        <v>9</v>
+      </c>
+      <c r="B57" s="15">
+        <v>0</v>
+      </c>
+      <c r="C57" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D57" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E57" s="15">
+        <v>6.6</v>
+      </c>
+      <c r="F57" s="15">
+        <v>8</v>
+      </c>
+      <c r="G57" s="15">
+        <v>0</v>
+      </c>
+      <c r="H57" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="I57" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J57" s="15">
+        <v>0</v>
+      </c>
+      <c r="K57" s="15">
+        <v>0</v>
+      </c>
+      <c r="L57" s="15">
+        <v>0</v>
+      </c>
+      <c r="M57" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="N57" s="15">
+        <v>0</v>
+      </c>
+      <c r="O57" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P57" s="15">
+        <v>3.4622760000000001</v>
+      </c>
+      <c r="Q57" s="15">
+        <v>0.43278450000000002</v>
+      </c>
+      <c r="R57" s="15">
+        <v>0</v>
+      </c>
+      <c r="S57" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T57" s="15">
+        <v>0</v>
+      </c>
+      <c r="U57" s="15">
+        <v>3.1436220000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A58" s="13">
+        <v>10</v>
+      </c>
+      <c r="B58" s="15">
+        <v>0</v>
+      </c>
+      <c r="C58" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D58" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E58" s="15">
+        <v>6.8</v>
+      </c>
+      <c r="F58" s="15">
+        <v>8</v>
+      </c>
+      <c r="G58" s="15">
+        <v>0</v>
+      </c>
+      <c r="H58" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="I58" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J58" s="15">
+        <v>0</v>
+      </c>
+      <c r="K58" s="15">
+        <v>0</v>
+      </c>
+      <c r="L58" s="15">
+        <v>0</v>
+      </c>
+      <c r="M58" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="N58" s="15">
+        <v>0</v>
+      </c>
+      <c r="O58" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P58" s="15">
+        <v>3.4622760000000001</v>
+      </c>
+      <c r="Q58" s="15">
+        <v>0.43278450000000002</v>
+      </c>
+      <c r="R58" s="15">
+        <v>0</v>
+      </c>
+      <c r="S58" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T58" s="15">
+        <v>0</v>
+      </c>
+      <c r="U58" s="15">
+        <v>3.257066</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A59" s="13">
+        <v>11</v>
+      </c>
+      <c r="B59" s="15">
+        <v>0</v>
+      </c>
+      <c r="C59" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D59" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E59" s="15">
+        <v>7</v>
+      </c>
+      <c r="F59" s="15">
+        <v>8</v>
+      </c>
+      <c r="G59" s="15">
+        <v>0</v>
+      </c>
+      <c r="H59" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="I59" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J59" s="15">
+        <v>0</v>
+      </c>
+      <c r="K59" s="15">
+        <v>0</v>
+      </c>
+      <c r="L59" s="15">
+        <v>0</v>
+      </c>
+      <c r="M59" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="N59" s="15">
+        <v>0</v>
+      </c>
+      <c r="O59" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P59" s="15">
+        <v>3.4622760000000001</v>
+      </c>
+      <c r="Q59" s="15">
+        <v>0.43278450000000002</v>
+      </c>
+      <c r="R59" s="15">
+        <v>0</v>
+      </c>
+      <c r="S59" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T59" s="15">
+        <v>0</v>
+      </c>
+      <c r="U59" s="15">
+        <v>3.3705090000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>1.9</v>
+      </c>
+      <c r="D61">
+        <v>1.9</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>-0.5</v>
+      </c>
+      <c r="I61">
+        <v>0.5</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>-0.5</v>
+      </c>
+      <c r="N61">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="O61">
+        <v>0.5</v>
+      </c>
+      <c r="P61">
+        <v>4.0029700000000004</v>
+      </c>
+      <c r="Q61">
+        <v>0.53299629999999998</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>2.335019</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>1.9</v>
+      </c>
+      <c r="D62">
+        <v>1.9</v>
+      </c>
+      <c r="E62">
+        <v>5.2</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>-0.5</v>
+      </c>
+      <c r="I62">
+        <v>0.5</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>-0.5</v>
+      </c>
+      <c r="N62">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="O62">
+        <v>0.5</v>
+      </c>
+      <c r="P62">
+        <v>4.0029700000000004</v>
+      </c>
+      <c r="Q62">
+        <v>0.53299629999999998</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>2.4284189999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>1.9</v>
+      </c>
+      <c r="D63">
+        <v>1.9</v>
+      </c>
+      <c r="E63">
+        <v>5.4</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>-0.5</v>
+      </c>
+      <c r="I63">
+        <v>0.5</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-0.5</v>
+      </c>
+      <c r="N63">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="O63">
+        <v>0.5</v>
+      </c>
+      <c r="P63">
+        <v>4.0029700000000004</v>
+      </c>
+      <c r="Q63">
+        <v>0.53299629999999998</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>2.52182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>1.9</v>
+      </c>
+      <c r="D64">
+        <v>1.9</v>
+      </c>
+      <c r="E64">
+        <v>5.6</v>
+      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>-0.5</v>
+      </c>
+      <c r="I64">
+        <v>0.5</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>-0.5</v>
+      </c>
+      <c r="N64">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="O64">
+        <v>0.5</v>
+      </c>
+      <c r="P64">
+        <v>4.0029700000000004</v>
+      </c>
+      <c r="Q64">
+        <v>0.53299629999999998</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>2.615221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>1.9</v>
+      </c>
+      <c r="D65">
+        <v>1.9</v>
+      </c>
+      <c r="E65">
+        <v>5.8</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>-0.5</v>
+      </c>
+      <c r="I65">
+        <v>0.5</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>-0.5</v>
+      </c>
+      <c r="N65">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="O65">
+        <v>0.5</v>
+      </c>
+      <c r="P65">
+        <v>4.0029700000000004</v>
+      </c>
+      <c r="Q65">
+        <v>0.53299629999999998</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>2.7086220000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>1.9</v>
+      </c>
+      <c r="D66">
+        <v>1.9</v>
+      </c>
+      <c r="E66">
+        <v>6</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>-0.5</v>
+      </c>
+      <c r="I66">
+        <v>0.5</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-0.5</v>
+      </c>
+      <c r="N66">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="O66">
+        <v>0.5</v>
+      </c>
+      <c r="P66">
+        <v>4.0029700000000004</v>
+      </c>
+      <c r="Q66">
+        <v>0.53299629999999998</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>2.802022</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>1.9</v>
+      </c>
+      <c r="D67">
+        <v>1.9</v>
+      </c>
+      <c r="E67">
+        <v>6.2</v>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>-0.5</v>
+      </c>
+      <c r="I67">
+        <v>0.5</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-0.5</v>
+      </c>
+      <c r="N67">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="O67">
+        <v>0.5</v>
+      </c>
+      <c r="P67">
+        <v>4.0029700000000004</v>
+      </c>
+      <c r="Q67">
+        <v>0.53299629999999998</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>2.8954230000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>1.9</v>
+      </c>
+      <c r="D68">
+        <v>1.9</v>
+      </c>
+      <c r="E68">
+        <v>6.4</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>-0.5</v>
+      </c>
+      <c r="I68">
+        <v>0.5</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>-0.5</v>
+      </c>
+      <c r="N68">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="O68">
+        <v>0.5</v>
+      </c>
+      <c r="P68">
+        <v>4.0029700000000004</v>
+      </c>
+      <c r="Q68">
+        <v>0.53299629999999998</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>2.9888240000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>1.9</v>
+      </c>
+      <c r="D69">
+        <v>1.9</v>
+      </c>
+      <c r="E69">
+        <v>6.6</v>
+      </c>
+      <c r="F69">
+        <v>8</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>-0.5</v>
+      </c>
+      <c r="I69">
+        <v>0.5</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>-0.5</v>
+      </c>
+      <c r="N69">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="O69">
+        <v>0.5</v>
+      </c>
+      <c r="P69">
+        <v>4.0029700000000004</v>
+      </c>
+      <c r="Q69">
+        <v>0.53299629999999998</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>3.0822250000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>1.9</v>
+      </c>
+      <c r="D70">
+        <v>1.9</v>
+      </c>
+      <c r="E70">
+        <v>6.8</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>-0.5</v>
+      </c>
+      <c r="I70">
+        <v>0.5</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>-0.5</v>
+      </c>
+      <c r="N70">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="O70">
+        <v>0.5</v>
+      </c>
+      <c r="P70">
+        <v>4.0029700000000004</v>
+      </c>
+      <c r="Q70">
+        <v>0.53299629999999998</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>3.1756250000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71">
+        <v>11</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>1.9</v>
+      </c>
+      <c r="D71">
+        <v>1.9</v>
+      </c>
+      <c r="E71">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>-0.5</v>
+      </c>
+      <c r="I71">
+        <v>0.5</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-0.5</v>
+      </c>
+      <c r="N71">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="O71">
+        <v>0.5</v>
+      </c>
+      <c r="P71">
+        <v>4.0029700000000004</v>
+      </c>
+      <c r="Q71">
+        <v>0.53299629999999998</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>3.2690260000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="15.75" thickBot="1"/>
+    <row r="73" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A73" s="13">
+        <v>1</v>
+      </c>
+      <c r="B73" s="15">
+        <v>0</v>
+      </c>
+      <c r="C73" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D73" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E73" s="15">
+        <v>5</v>
+      </c>
+      <c r="F73" s="15">
+        <v>8</v>
+      </c>
+      <c r="G73" s="15">
+        <v>0</v>
+      </c>
+      <c r="H73" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I73" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J73" s="15">
+        <v>1.089</v>
+      </c>
+      <c r="K73" s="15">
+        <v>0</v>
+      </c>
+      <c r="L73" s="15">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="M73" s="15">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="N73" s="15">
+        <v>0</v>
+      </c>
+      <c r="O73" s="15">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="P73" s="15">
+        <v>4.0860905000000001</v>
+      </c>
+      <c r="Q73" s="15">
+        <v>0.65801129999999997</v>
+      </c>
+      <c r="R73" s="15">
+        <v>0</v>
+      </c>
+      <c r="S73" s="15">
+        <v>0</v>
+      </c>
+      <c r="T73" s="15">
+        <v>0</v>
+      </c>
+      <c r="U73" s="15">
+        <v>1.709943</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A74" s="13">
+        <v>2</v>
+      </c>
+      <c r="B74" s="15">
+        <v>0</v>
+      </c>
+      <c r="C74" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D74" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E74" s="15">
+        <v>5.4</v>
+      </c>
+      <c r="F74" s="15">
+        <v>8</v>
+      </c>
+      <c r="G74" s="15">
+        <v>0</v>
+      </c>
+      <c r="H74" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I74" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J74" s="15">
+        <v>1.089</v>
+      </c>
+      <c r="K74" s="15">
+        <v>0</v>
+      </c>
+      <c r="L74" s="15">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="M74" s="15">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="N74" s="15">
+        <v>0</v>
+      </c>
+      <c r="O74" s="15">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="P74" s="15">
+        <v>4.0860905000000001</v>
+      </c>
+      <c r="Q74" s="15">
+        <v>0.65801129999999997</v>
+      </c>
+      <c r="R74" s="15">
+        <v>0</v>
+      </c>
+      <c r="S74" s="15">
+        <v>0</v>
+      </c>
+      <c r="T74" s="15">
+        <v>0</v>
+      </c>
+      <c r="U74" s="15">
+        <v>1.8467389999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A75" s="13">
+        <v>3</v>
+      </c>
+      <c r="B75" s="15">
+        <v>0</v>
+      </c>
+      <c r="C75" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D75" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E75" s="15">
+        <v>5.8</v>
+      </c>
+      <c r="F75" s="15">
+        <v>8</v>
+      </c>
+      <c r="G75" s="15">
+        <v>0</v>
+      </c>
+      <c r="H75" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I75" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J75" s="15">
+        <v>1.089</v>
+      </c>
+      <c r="K75" s="15">
+        <v>0</v>
+      </c>
+      <c r="L75" s="15">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="M75" s="15">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="N75" s="15">
+        <v>0</v>
+      </c>
+      <c r="O75" s="15">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="P75" s="15">
+        <v>4.0860905000000001</v>
+      </c>
+      <c r="Q75" s="15">
+        <v>0.65801129999999997</v>
+      </c>
+      <c r="R75" s="15">
+        <v>0</v>
+      </c>
+      <c r="S75" s="15">
+        <v>0</v>
+      </c>
+      <c r="T75" s="15">
+        <v>0</v>
+      </c>
+      <c r="U75" s="15">
+        <v>1.9835339999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A76" s="13">
+        <v>4</v>
+      </c>
+      <c r="B76" s="15">
+        <v>0</v>
+      </c>
+      <c r="C76" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D76" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E76" s="15">
+        <v>6.2</v>
+      </c>
+      <c r="F76" s="15">
+        <v>8</v>
+      </c>
+      <c r="G76" s="15">
+        <v>0</v>
+      </c>
+      <c r="H76" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I76" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J76" s="15">
+        <v>1.089</v>
+      </c>
+      <c r="K76" s="15">
+        <v>0</v>
+      </c>
+      <c r="L76" s="15">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="M76" s="15">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="N76" s="15">
+        <v>0</v>
+      </c>
+      <c r="O76" s="15">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="P76" s="15">
+        <v>4.0860905000000001</v>
+      </c>
+      <c r="Q76" s="15">
+        <v>0.65801129999999997</v>
+      </c>
+      <c r="R76" s="15">
+        <v>0</v>
+      </c>
+      <c r="S76" s="15">
+        <v>0</v>
+      </c>
+      <c r="T76" s="15">
+        <v>0</v>
+      </c>
+      <c r="U76" s="15">
+        <v>2.12033</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A77" s="13">
+        <v>5</v>
+      </c>
+      <c r="B77" s="15">
+        <v>0</v>
+      </c>
+      <c r="C77" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D77" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E77" s="15">
+        <v>6.6</v>
+      </c>
+      <c r="F77" s="15">
+        <v>8</v>
+      </c>
+      <c r="G77" s="15">
+        <v>0</v>
+      </c>
+      <c r="H77" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I77" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J77" s="15">
+        <v>1.089</v>
+      </c>
+      <c r="K77" s="15">
+        <v>0</v>
+      </c>
+      <c r="L77" s="15">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="M77" s="15">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="N77" s="15">
+        <v>0</v>
+      </c>
+      <c r="O77" s="15">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="P77" s="15">
+        <v>4.0860905000000001</v>
+      </c>
+      <c r="Q77" s="15">
+        <v>0.65801129999999997</v>
+      </c>
+      <c r="R77" s="15">
+        <v>0</v>
+      </c>
+      <c r="S77" s="15">
+        <v>0</v>
+      </c>
+      <c r="T77" s="15">
+        <v>0</v>
+      </c>
+      <c r="U77" s="15">
+        <v>2.2571249999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A78" s="13">
+        <v>6</v>
+      </c>
+      <c r="B78" s="15">
+        <v>0</v>
+      </c>
+      <c r="C78" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D78" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E78" s="15">
+        <v>7</v>
+      </c>
+      <c r="F78" s="15">
+        <v>8</v>
+      </c>
+      <c r="G78" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="H78" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="I78" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="J78" s="15">
+        <v>0</v>
+      </c>
+      <c r="K78" s="15">
+        <v>0</v>
+      </c>
+      <c r="L78" s="15">
+        <v>0</v>
+      </c>
+      <c r="M78" s="15">
+        <v>-1.9</v>
+      </c>
+      <c r="N78" s="15">
+        <v>-1.8</v>
+      </c>
+      <c r="O78" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="P78" s="15">
+        <v>1.0481575000000001</v>
+      </c>
+      <c r="Q78" s="15">
+        <v>0.13101969999999999</v>
+      </c>
+      <c r="R78" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="S78" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="T78" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="U78" s="15">
+        <v>2.4828619999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A79" s="13">
+        <v>7</v>
+      </c>
+      <c r="B79" s="15">
+        <v>0</v>
+      </c>
+      <c r="C79" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D79" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E79" s="15">
+        <v>7.4</v>
+      </c>
+      <c r="F79" s="15">
+        <v>8</v>
+      </c>
+      <c r="G79" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="H79" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="I79" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="J79" s="15">
+        <v>0</v>
+      </c>
+      <c r="K79" s="15">
+        <v>0</v>
+      </c>
+      <c r="L79" s="15">
+        <v>0</v>
+      </c>
+      <c r="M79" s="15">
+        <v>-1.9</v>
+      </c>
+      <c r="N79" s="15">
+        <v>-1.8</v>
+      </c>
+      <c r="O79" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="P79" s="15">
+        <v>1.0481575000000001</v>
+      </c>
+      <c r="Q79" s="15">
+        <v>0.13101969999999999</v>
+      </c>
+      <c r="R79" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="S79" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="T79" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="U79" s="15">
+        <v>2.830454</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A80" s="13">
+        <v>8</v>
+      </c>
+      <c r="B80" s="15">
+        <v>0</v>
+      </c>
+      <c r="C80" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D80" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E80" s="15">
+        <v>7.8</v>
+      </c>
+      <c r="F80" s="15">
+        <v>8</v>
+      </c>
+      <c r="G80" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="H80" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="I80" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="J80" s="15">
+        <v>0</v>
+      </c>
+      <c r="K80" s="15">
+        <v>0</v>
+      </c>
+      <c r="L80" s="15">
+        <v>0</v>
+      </c>
+      <c r="M80" s="15">
+        <v>-1.9</v>
+      </c>
+      <c r="N80" s="15">
+        <v>-1.8</v>
+      </c>
+      <c r="O80" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="P80" s="15">
+        <v>1.0481575000000001</v>
+      </c>
+      <c r="Q80" s="15">
+        <v>0.13101969999999999</v>
+      </c>
+      <c r="R80" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="S80" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="T80" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="U80" s="15">
+        <v>3.1780460000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A81" s="13">
+        <v>9</v>
+      </c>
+      <c r="B81" s="15">
+        <v>0</v>
+      </c>
+      <c r="C81" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D81" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E81" s="15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F81" s="15">
+        <v>8</v>
+      </c>
+      <c r="G81" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="H81" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="I81" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="J81" s="15">
+        <v>0</v>
+      </c>
+      <c r="K81" s="15">
+        <v>0</v>
+      </c>
+      <c r="L81" s="15">
+        <v>0</v>
+      </c>
+      <c r="M81" s="15">
+        <v>-1.9</v>
+      </c>
+      <c r="N81" s="15">
+        <v>-1.8</v>
+      </c>
+      <c r="O81" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="P81" s="15">
+        <v>1.0481575000000001</v>
+      </c>
+      <c r="Q81" s="15">
+        <v>0.13101969999999999</v>
+      </c>
+      <c r="R81" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="S81" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="T81" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="U81" s="15">
+        <v>3.525639</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A82" s="13">
+        <v>10</v>
+      </c>
+      <c r="B82" s="15">
+        <v>0</v>
+      </c>
+      <c r="C82" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D82" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E82" s="15">
+        <v>8.6</v>
+      </c>
+      <c r="F82" s="15">
+        <v>8</v>
+      </c>
+      <c r="G82" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="H82" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="I82" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="J82" s="15">
+        <v>0</v>
+      </c>
+      <c r="K82" s="15">
+        <v>0</v>
+      </c>
+      <c r="L82" s="15">
+        <v>0</v>
+      </c>
+      <c r="M82" s="15">
+        <v>-1.9</v>
+      </c>
+      <c r="N82" s="15">
+        <v>-1.8</v>
+      </c>
+      <c r="O82" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="P82" s="15">
+        <v>1.0481575000000001</v>
+      </c>
+      <c r="Q82" s="15">
+        <v>0.13101969999999999</v>
+      </c>
+      <c r="R82" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="S82" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="T82" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="U82" s="15">
+        <v>3.8732310000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A83" s="13">
+        <v>11</v>
+      </c>
+      <c r="B83" s="15">
+        <v>0</v>
+      </c>
+      <c r="C83" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D83" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E83" s="15">
+        <v>9</v>
+      </c>
+      <c r="F83" s="15">
+        <v>8</v>
+      </c>
+      <c r="G83" s="15">
+        <v>0</v>
+      </c>
+      <c r="H83" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="I83" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="J83" s="15">
+        <v>0</v>
+      </c>
+      <c r="K83" s="15">
+        <v>0</v>
+      </c>
+      <c r="L83" s="15">
+        <v>0</v>
+      </c>
+      <c r="M83" s="15">
+        <v>-1.9</v>
+      </c>
+      <c r="N83" s="15">
+        <v>0</v>
+      </c>
+      <c r="O83" s="15">
+        <v>-1.9</v>
+      </c>
+      <c r="P83" s="15">
+        <v>0.86417250000000001</v>
+      </c>
+      <c r="Q83" s="15">
+        <v>0.1080216</v>
+      </c>
+      <c r="R83" s="15">
+        <v>0</v>
+      </c>
+      <c r="S83" s="15">
+        <v>2.4</v>
+      </c>
+      <c r="T83" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="U83" s="15">
+        <v>4.2278060000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>0.9</v>
+      </c>
+      <c r="C85">
+        <v>1.2</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>8</v>
+      </c>
+      <c r="F85">
+        <v>1.2</v>
+      </c>
+      <c r="G85">
+        <v>-0.5</v>
+      </c>
+      <c r="H85">
+        <v>0.5</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>-0.5</v>
+      </c>
+      <c r="M85">
+        <v>-1.2</v>
+      </c>
+      <c r="N85">
+        <v>0.5</v>
+      </c>
+      <c r="O85">
+        <v>2.9971079999999999</v>
+      </c>
+      <c r="P85">
+        <v>0.37463849999999999</v>
+      </c>
+      <c r="Q85">
+        <v>1.2</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>1.9268069999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0.9</v>
+      </c>
+      <c r="D86">
+        <v>1.2</v>
+      </c>
+      <c r="E86">
+        <v>5.4</v>
+      </c>
+      <c r="F86">
+        <v>8</v>
+      </c>
+      <c r="G86">
+        <v>1.2</v>
+      </c>
+      <c r="H86">
+        <v>-0.5</v>
+      </c>
+      <c r="I86">
+        <v>0.5</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>-0.5</v>
+      </c>
+      <c r="N86">
+        <v>-1.2</v>
+      </c>
+      <c r="O86">
+        <v>0.5</v>
+      </c>
+      <c r="P86">
+        <v>2.9971079999999999</v>
+      </c>
+      <c r="Q86">
+        <v>0.37463849999999999</v>
+      </c>
+      <c r="R86">
+        <v>1.2</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>2.176952</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0.9</v>
+      </c>
+      <c r="D87">
+        <v>1.2</v>
+      </c>
+      <c r="E87">
+        <v>5.8</v>
+      </c>
+      <c r="F87">
+        <v>8</v>
+      </c>
+      <c r="G87">
+        <v>1.2</v>
+      </c>
+      <c r="H87">
+        <v>-0.5</v>
+      </c>
+      <c r="I87">
+        <v>0.5</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>-0.5</v>
+      </c>
+      <c r="N87">
+        <v>-1.2</v>
+      </c>
+      <c r="O87">
+        <v>0.5</v>
+      </c>
+      <c r="P87">
+        <v>2.9971079999999999</v>
+      </c>
+      <c r="Q87">
+        <v>0.37463849999999999</v>
+      </c>
+      <c r="R87">
+        <v>1.2</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>2.4270969999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0.9</v>
+      </c>
+      <c r="D88">
+        <v>1.2</v>
+      </c>
+      <c r="E88">
+        <v>6.2</v>
+      </c>
+      <c r="F88">
+        <v>8</v>
+      </c>
+      <c r="G88">
+        <v>1.2</v>
+      </c>
+      <c r="H88">
+        <v>-0.5</v>
+      </c>
+      <c r="I88">
+        <v>0.5</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>-0.5</v>
+      </c>
+      <c r="N88">
+        <v>-1.2</v>
+      </c>
+      <c r="O88">
+        <v>0.5</v>
+      </c>
+      <c r="P88">
+        <v>2.9971079999999999</v>
+      </c>
+      <c r="Q88">
+        <v>0.37463849999999999</v>
+      </c>
+      <c r="R88">
+        <v>1.2</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>2.677241</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0.9</v>
+      </c>
+      <c r="D89">
+        <v>1.2</v>
+      </c>
+      <c r="E89">
+        <v>6.6</v>
+      </c>
+      <c r="F89">
+        <v>8</v>
+      </c>
+      <c r="G89">
+        <v>1.2</v>
+      </c>
+      <c r="H89">
+        <v>-0.5</v>
+      </c>
+      <c r="I89">
+        <v>0.5</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>-0.5</v>
+      </c>
+      <c r="N89">
+        <v>-1.2</v>
+      </c>
+      <c r="O89">
+        <v>0.5</v>
+      </c>
+      <c r="P89">
+        <v>2.9971079999999999</v>
+      </c>
+      <c r="Q89">
+        <v>0.37463849999999999</v>
+      </c>
+      <c r="R89">
+        <v>1.2</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>2.9273859999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="A90">
+        <v>6</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0.9</v>
+      </c>
+      <c r="D90">
+        <v>1.2</v>
+      </c>
+      <c r="E90">
+        <v>7</v>
+      </c>
+      <c r="F90">
+        <v>8</v>
+      </c>
+      <c r="G90">
+        <v>1.2</v>
+      </c>
+      <c r="H90">
+        <v>-0.5</v>
+      </c>
+      <c r="I90">
+        <v>0.5</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>-0.5</v>
+      </c>
+      <c r="N90">
+        <v>-1.2</v>
+      </c>
+      <c r="O90">
+        <v>0.5</v>
+      </c>
+      <c r="P90">
+        <v>2.9971079999999999</v>
+      </c>
+      <c r="Q90">
+        <v>0.37463849999999999</v>
+      </c>
+      <c r="R90">
+        <v>1.2</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>3.17753</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
+      <c r="A91">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0.9</v>
+      </c>
+      <c r="D91">
+        <v>1.2</v>
+      </c>
+      <c r="E91">
+        <v>7.4</v>
+      </c>
+      <c r="F91">
+        <v>8</v>
+      </c>
+      <c r="G91">
+        <v>1.2</v>
+      </c>
+      <c r="H91">
+        <v>-0.5</v>
+      </c>
+      <c r="I91">
+        <v>0.5</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>-0.5</v>
+      </c>
+      <c r="N91">
+        <v>-1.2</v>
+      </c>
+      <c r="O91">
+        <v>0.5</v>
+      </c>
+      <c r="P91">
+        <v>2.9971079999999999</v>
+      </c>
+      <c r="Q91">
+        <v>0.37463849999999999</v>
+      </c>
+      <c r="R91">
+        <v>1.2</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>3.4276749999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
+      <c r="A92">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0.9</v>
+      </c>
+      <c r="D92">
+        <v>1.2</v>
+      </c>
+      <c r="E92">
+        <v>7.8</v>
+      </c>
+      <c r="F92">
+        <v>8</v>
+      </c>
+      <c r="G92">
+        <v>1.2</v>
+      </c>
+      <c r="H92">
+        <v>-0.5</v>
+      </c>
+      <c r="I92">
+        <v>0.5</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>-0.5</v>
+      </c>
+      <c r="N92">
+        <v>-1.2</v>
+      </c>
+      <c r="O92">
+        <v>0.5</v>
+      </c>
+      <c r="P92">
+        <v>2.9971079999999999</v>
+      </c>
+      <c r="Q92">
+        <v>0.37463849999999999</v>
+      </c>
+      <c r="R92">
+        <v>1.2</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>3.6778200000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="A93">
+        <v>9</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0.9</v>
+      </c>
+      <c r="D93">
+        <v>1.2</v>
+      </c>
+      <c r="E93">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F93">
+        <v>8</v>
+      </c>
+      <c r="G93">
+        <v>1.2</v>
+      </c>
+      <c r="H93">
+        <v>-0.5</v>
+      </c>
+      <c r="I93">
+        <v>0.5</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>-0.5</v>
+      </c>
+      <c r="N93">
+        <v>-1.2</v>
+      </c>
+      <c r="O93">
+        <v>0.5</v>
+      </c>
+      <c r="P93">
+        <v>2.9971079999999999</v>
+      </c>
+      <c r="Q93">
+        <v>0.37463849999999999</v>
+      </c>
+      <c r="R93">
+        <v>1.2</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>3.9279639999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
+      <c r="A94">
+        <v>10</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0.9</v>
+      </c>
+      <c r="D94">
+        <v>1.2</v>
+      </c>
+      <c r="E94">
+        <v>8.6</v>
+      </c>
+      <c r="F94">
+        <v>8</v>
+      </c>
+      <c r="G94">
+        <v>1.2</v>
+      </c>
+      <c r="H94">
+        <v>0.5</v>
+      </c>
+      <c r="I94">
+        <v>0.5</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>-0.5</v>
+      </c>
+      <c r="N94">
+        <v>-1.2</v>
+      </c>
+      <c r="O94">
+        <v>-0.5</v>
+      </c>
+      <c r="P94">
+        <v>2.0332110000000001</v>
+      </c>
+      <c r="Q94">
+        <v>0.25415140000000003</v>
+      </c>
+      <c r="R94">
+        <v>1.2</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>4.2142980000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21">
+      <c r="A95">
+        <v>11</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0.9</v>
+      </c>
+      <c r="D95">
+        <v>1.2</v>
+      </c>
+      <c r="E95">
+        <v>9</v>
+      </c>
+      <c r="F95">
+        <v>8</v>
+      </c>
+      <c r="G95">
+        <v>1.2</v>
+      </c>
+      <c r="H95">
+        <v>0.5</v>
+      </c>
+      <c r="I95">
+        <v>0.5</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>-0.5</v>
+      </c>
+      <c r="N95">
+        <v>-1.2</v>
+      </c>
+      <c r="O95">
+        <v>-0.5</v>
+      </c>
+      <c r="P95">
+        <v>2.0332110000000001</v>
+      </c>
+      <c r="Q95">
+        <v>0.25415140000000003</v>
+      </c>
+      <c r="R95">
+        <v>1.2</v>
+      </c>
+      <c r="S95">
+        <v>1</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>4.5126379999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>1.2</v>
+      </c>
+      <c r="D97">
+        <v>0.9</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+      <c r="F97">
+        <v>8</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>-0.5</v>
+      </c>
+      <c r="I97">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="N97">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="O97">
+        <v>0.5</v>
+      </c>
+      <c r="P97">
+        <v>3.3692570000000002</v>
+      </c>
+      <c r="Q97">
+        <v>0.50328209999999995</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0.6</v>
+      </c>
+      <c r="U97">
+        <v>1.883589</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>1.2</v>
+      </c>
+      <c r="D98">
+        <v>0.9</v>
+      </c>
+      <c r="E98">
+        <v>5.4</v>
+      </c>
+      <c r="F98">
+        <v>8</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>-0.5</v>
+      </c>
+      <c r="I98">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="N98">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="O98">
+        <v>0.5</v>
+      </c>
+      <c r="P98">
+        <v>3.3692570000000002</v>
+      </c>
+      <c r="Q98">
+        <v>0.50328209999999995</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0.6</v>
+      </c>
+      <c r="U98">
+        <v>2.0822769999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>1.2</v>
+      </c>
+      <c r="D99">
+        <v>0.9</v>
+      </c>
+      <c r="E99">
+        <v>5.8</v>
+      </c>
+      <c r="F99">
+        <v>8</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0.1</v>
+      </c>
+      <c r="I99">
+        <v>1.5</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>-1.5</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>-0.1</v>
+      </c>
+      <c r="P99">
+        <v>2.5521910000000001</v>
+      </c>
+      <c r="Q99">
+        <v>0.31902390000000003</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0.6</v>
+      </c>
+      <c r="T99">
+        <v>1</v>
+      </c>
+      <c r="U99">
+        <v>2.3496610000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>1.2</v>
+      </c>
+      <c r="D100">
+        <v>0.9</v>
+      </c>
+      <c r="E100">
+        <v>6.2</v>
+      </c>
+      <c r="F100">
+        <v>8</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0.1</v>
+      </c>
+      <c r="I100">
+        <v>1.5</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>-1.5</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>-0.1</v>
+      </c>
+      <c r="P100">
+        <v>2.5521910000000001</v>
+      </c>
+      <c r="Q100">
+        <v>0.31902390000000003</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0.6</v>
+      </c>
+      <c r="T100">
+        <v>1</v>
+      </c>
+      <c r="U100">
+        <v>2.622052</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21">
+      <c r="A101">
+        <v>5</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>1.2</v>
+      </c>
+      <c r="D101">
+        <v>0.9</v>
+      </c>
+      <c r="E101">
+        <v>6.6</v>
+      </c>
+      <c r="F101">
+        <v>8</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0.1</v>
+      </c>
+      <c r="I101">
+        <v>1.5</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>-1.5</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>-0.1</v>
+      </c>
+      <c r="P101">
+        <v>2.5521910000000001</v>
+      </c>
+      <c r="Q101">
+        <v>0.31902390000000003</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0.6</v>
+      </c>
+      <c r="T101">
+        <v>1</v>
+      </c>
+      <c r="U101">
+        <v>2.8944420000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21">
+      <c r="A102">
+        <v>6</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>1.2</v>
+      </c>
+      <c r="D102">
+        <v>0.9</v>
+      </c>
+      <c r="E102">
+        <v>7</v>
+      </c>
+      <c r="F102">
+        <v>8</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0.1</v>
+      </c>
+      <c r="I102">
+        <v>1.5</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>-1.5</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>-0.1</v>
+      </c>
+      <c r="P102">
+        <v>2.5521910000000001</v>
+      </c>
+      <c r="Q102">
+        <v>0.31902390000000003</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>0.6</v>
+      </c>
+      <c r="T102">
+        <v>1</v>
+      </c>
+      <c r="U102">
+        <v>3.166833</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21">
+      <c r="A103">
+        <v>7</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>1.2</v>
+      </c>
+      <c r="D103">
+        <v>0.9</v>
+      </c>
+      <c r="E103">
+        <v>7.4</v>
+      </c>
+      <c r="F103">
+        <v>8</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0.1</v>
+      </c>
+      <c r="I103">
+        <v>1.5</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>-1.5</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>-0.1</v>
+      </c>
+      <c r="P103">
+        <v>2.5521910000000001</v>
+      </c>
+      <c r="Q103">
+        <v>0.31902390000000003</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0.6</v>
+      </c>
+      <c r="T103">
+        <v>1</v>
+      </c>
+      <c r="U103">
+        <v>3.4392230000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21">
+      <c r="A104">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>1.2</v>
+      </c>
+      <c r="D104">
+        <v>0.9</v>
+      </c>
+      <c r="E104">
+        <v>7.8</v>
+      </c>
+      <c r="F104">
+        <v>8</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0.1</v>
+      </c>
+      <c r="I104">
+        <v>1.5</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>-1.5</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>-0.1</v>
+      </c>
+      <c r="P104">
+        <v>2.5521910000000001</v>
+      </c>
+      <c r="Q104">
+        <v>0.31902390000000003</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>0.6</v>
+      </c>
+      <c r="T104">
+        <v>1</v>
+      </c>
+      <c r="U104">
+        <v>3.711614</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21">
+      <c r="A105">
+        <v>9</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>1.2</v>
+      </c>
+      <c r="D105">
+        <v>0.9</v>
+      </c>
+      <c r="E105">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F105">
+        <v>8</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0.1</v>
+      </c>
+      <c r="I105">
+        <v>1.5</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>-1.5</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>-0.1</v>
+      </c>
+      <c r="P105">
+        <v>2.5521910000000001</v>
+      </c>
+      <c r="Q105">
+        <v>0.31902390000000003</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0.6</v>
+      </c>
+      <c r="T105">
+        <v>1</v>
+      </c>
+      <c r="U105">
+        <v>3.9840040000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21">
+      <c r="A106">
+        <v>10</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>1.2</v>
+      </c>
+      <c r="D106">
+        <v>0.9</v>
+      </c>
+      <c r="E106">
+        <v>8.6</v>
+      </c>
+      <c r="F106">
+        <v>8</v>
+      </c>
+      <c r="G106">
+        <v>0.4</v>
+      </c>
+      <c r="H106">
+        <v>0.1</v>
+      </c>
+      <c r="I106">
+        <v>1.5</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>-1.5</v>
+      </c>
+      <c r="N106">
+        <v>-0.4</v>
+      </c>
+      <c r="O106">
+        <v>-0.1</v>
+      </c>
+      <c r="P106">
+        <v>2.1686559999999999</v>
+      </c>
+      <c r="Q106">
+        <v>0.27108199999999999</v>
+      </c>
+      <c r="R106">
+        <v>0.4</v>
+      </c>
+      <c r="S106">
+        <v>0.6</v>
+      </c>
+      <c r="T106">
+        <v>1</v>
+      </c>
+      <c r="U106">
+        <v>4.2686950000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21">
+      <c r="A107">
+        <v>11</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>1.2</v>
+      </c>
+      <c r="D107">
+        <v>0.9</v>
+      </c>
+      <c r="E107">
+        <v>9</v>
+      </c>
+      <c r="F107">
+        <v>8</v>
+      </c>
+      <c r="G107">
+        <v>0.6</v>
+      </c>
+      <c r="H107">
+        <v>0.1</v>
+      </c>
+      <c r="I107">
+        <v>1.5</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>-1.5</v>
+      </c>
+      <c r="N107">
+        <v>-0.6</v>
+      </c>
+      <c r="O107">
+        <v>-0.1</v>
+      </c>
+      <c r="P107">
+        <v>1.986119</v>
+      </c>
+      <c r="Q107">
+        <v>0.24826490000000001</v>
+      </c>
+      <c r="R107">
+        <v>0.6</v>
+      </c>
+      <c r="S107">
+        <v>0.6</v>
+      </c>
+      <c r="T107">
+        <v>1</v>
+      </c>
+      <c r="U107">
+        <v>4.5656160000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" ht="15.75" thickBot="1"/>
+    <row r="109" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A109" s="13">
+        <v>1</v>
+      </c>
+      <c r="B109" s="15">
+        <v>0</v>
+      </c>
+      <c r="C109" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="D109" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E109" s="15">
+        <v>5</v>
+      </c>
+      <c r="F109" s="15">
+        <v>9</v>
+      </c>
+      <c r="G109" s="15">
+        <v>0</v>
+      </c>
+      <c r="H109" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I109" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J109" s="15">
+        <v>1.292</v>
+      </c>
+      <c r="K109" s="15">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="L109" s="15">
+        <v>0</v>
+      </c>
+      <c r="M109" s="15">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="N109" s="15">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="O109" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P109" s="15">
+        <v>4.6074574999999998</v>
+      </c>
+      <c r="Q109" s="15">
+        <v>0.69338420000000001</v>
+      </c>
+      <c r="R109" s="15">
+        <v>0</v>
+      </c>
+      <c r="S109" s="15">
+        <v>0</v>
+      </c>
+      <c r="T109" s="15">
+        <v>0</v>
+      </c>
+      <c r="U109" s="15">
+        <v>1.5330790000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A110" s="13">
+        <v>2</v>
+      </c>
+      <c r="B110" s="15">
+        <v>0</v>
+      </c>
+      <c r="C110" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="D110" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E110" s="15">
+        <v>5.4</v>
+      </c>
+      <c r="F110" s="15">
+        <v>9</v>
+      </c>
+      <c r="G110" s="15">
+        <v>0</v>
+      </c>
+      <c r="H110" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I110" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J110" s="15">
+        <v>1.292</v>
+      </c>
+      <c r="K110" s="15">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="L110" s="15">
+        <v>0</v>
+      </c>
+      <c r="M110" s="15">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="N110" s="15">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="O110" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P110" s="15">
+        <v>4.6074574999999998</v>
+      </c>
+      <c r="Q110" s="15">
+        <v>0.69338420000000001</v>
+      </c>
+      <c r="R110" s="15">
+        <v>0</v>
+      </c>
+      <c r="S110" s="15">
+        <v>0</v>
+      </c>
+      <c r="T110" s="15">
+        <v>0</v>
+      </c>
+      <c r="U110" s="15">
+        <v>1.655726</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A111" s="13">
+        <v>3</v>
+      </c>
+      <c r="B111" s="15">
+        <v>0</v>
+      </c>
+      <c r="C111" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="D111" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E111" s="15">
+        <v>5.8</v>
+      </c>
+      <c r="F111" s="15">
+        <v>9</v>
+      </c>
+      <c r="G111" s="15">
+        <v>0</v>
+      </c>
+      <c r="H111" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I111" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J111" s="15">
+        <v>1.292</v>
+      </c>
+      <c r="K111" s="15">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="L111" s="15">
+        <v>0</v>
+      </c>
+      <c r="M111" s="15">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="N111" s="15">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="O111" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P111" s="15">
+        <v>4.6074574999999998</v>
+      </c>
+      <c r="Q111" s="15">
+        <v>0.69338420000000001</v>
+      </c>
+      <c r="R111" s="15">
+        <v>0</v>
+      </c>
+      <c r="S111" s="15">
+        <v>0</v>
+      </c>
+      <c r="T111" s="15">
+        <v>0</v>
+      </c>
+      <c r="U111" s="15">
+        <v>1.7783720000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A112" s="13">
+        <v>4</v>
+      </c>
+      <c r="B112" s="15">
+        <v>0</v>
+      </c>
+      <c r="C112" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="D112" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E112" s="15">
+        <v>6.2</v>
+      </c>
+      <c r="F112" s="15">
+        <v>9</v>
+      </c>
+      <c r="G112" s="15">
+        <v>0</v>
+      </c>
+      <c r="H112" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I112" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J112" s="15">
+        <v>1.292</v>
+      </c>
+      <c r="K112" s="15">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="L112" s="15">
+        <v>0</v>
+      </c>
+      <c r="M112" s="15">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="N112" s="15">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="O112" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P112" s="15">
+        <v>4.6074574999999998</v>
+      </c>
+      <c r="Q112" s="15">
+        <v>0.69338420000000001</v>
+      </c>
+      <c r="R112" s="15">
+        <v>0</v>
+      </c>
+      <c r="S112" s="15">
+        <v>0</v>
+      </c>
+      <c r="T112" s="15">
+        <v>0</v>
+      </c>
+      <c r="U112" s="15">
+        <v>1.9010180000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A113" s="13">
+        <v>5</v>
+      </c>
+      <c r="B113" s="15">
+        <v>0</v>
+      </c>
+      <c r="C113" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="D113" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E113" s="15">
+        <v>6.6</v>
+      </c>
+      <c r="F113" s="15">
+        <v>9</v>
+      </c>
+      <c r="G113" s="15">
+        <v>0</v>
+      </c>
+      <c r="H113" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I113" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J113" s="15">
+        <v>1.292</v>
+      </c>
+      <c r="K113" s="15">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="L113" s="15">
+        <v>0</v>
+      </c>
+      <c r="M113" s="15">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="N113" s="15">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="O113" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P113" s="15">
+        <v>4.6074574999999998</v>
+      </c>
+      <c r="Q113" s="15">
+        <v>0.69338420000000001</v>
+      </c>
+      <c r="R113" s="15">
+        <v>0</v>
+      </c>
+      <c r="S113" s="15">
+        <v>0</v>
+      </c>
+      <c r="T113" s="15">
+        <v>0</v>
+      </c>
+      <c r="U113" s="15">
+        <v>2.0236649999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A114" s="13">
+        <v>6</v>
+      </c>
+      <c r="B114" s="15">
+        <v>0</v>
+      </c>
+      <c r="C114" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="D114" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E114" s="15">
+        <v>7</v>
+      </c>
+      <c r="F114" s="15">
+        <v>9</v>
+      </c>
+      <c r="G114" s="15">
+        <v>0</v>
+      </c>
+      <c r="H114" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I114" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J114" s="15">
+        <v>1.292</v>
+      </c>
+      <c r="K114" s="15">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="L114" s="15">
+        <v>0</v>
+      </c>
+      <c r="M114" s="15">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="N114" s="15">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="O114" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P114" s="15">
+        <v>4.6074574999999998</v>
+      </c>
+      <c r="Q114" s="15">
+        <v>0.69338420000000001</v>
+      </c>
+      <c r="R114" s="15">
+        <v>0</v>
+      </c>
+      <c r="S114" s="15">
+        <v>0</v>
+      </c>
+      <c r="T114" s="15">
+        <v>0</v>
+      </c>
+      <c r="U114" s="15">
+        <v>2.1463109999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A115" s="13">
+        <v>7</v>
+      </c>
+      <c r="B115" s="15">
+        <v>0</v>
+      </c>
+      <c r="C115" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="D115" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E115" s="15">
+        <v>7.4</v>
+      </c>
+      <c r="F115" s="15">
+        <v>9</v>
+      </c>
+      <c r="G115" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="H115" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="I115" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="J115" s="15">
+        <v>0</v>
+      </c>
+      <c r="K115" s="15">
+        <v>0</v>
+      </c>
+      <c r="L115" s="15">
+        <v>0</v>
+      </c>
+      <c r="M115" s="15">
+        <v>-1.9</v>
+      </c>
+      <c r="N115" s="15">
+        <v>-1.6</v>
+      </c>
+      <c r="O115" s="15">
+        <v>-0.7</v>
+      </c>
+      <c r="P115" s="15">
+        <v>0.93602050000000003</v>
+      </c>
+      <c r="Q115" s="15">
+        <v>0.10400230000000001</v>
+      </c>
+      <c r="R115" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="S115" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="T115" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="U115" s="15">
+        <v>2.430383</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A116" s="13">
+        <v>8</v>
+      </c>
+      <c r="B116" s="15">
+        <v>0</v>
+      </c>
+      <c r="C116" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="D116" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E116" s="15">
+        <v>7.8</v>
+      </c>
+      <c r="F116" s="15">
+        <v>9</v>
+      </c>
+      <c r="G116" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="H116" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="I116" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="J116" s="15">
+        <v>0</v>
+      </c>
+      <c r="K116" s="15">
+        <v>0</v>
+      </c>
+      <c r="L116" s="15">
+        <v>0</v>
+      </c>
+      <c r="M116" s="15">
+        <v>-1.9</v>
+      </c>
+      <c r="N116" s="15">
+        <v>-1.6</v>
+      </c>
+      <c r="O116" s="15">
+        <v>-0.7</v>
+      </c>
+      <c r="P116" s="15">
+        <v>0.93602050000000003</v>
+      </c>
+      <c r="Q116" s="15">
+        <v>0.10400230000000001</v>
+      </c>
+      <c r="R116" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="S116" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="T116" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="U116" s="15">
+        <v>2.7887819999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A117" s="13">
+        <v>9</v>
+      </c>
+      <c r="B117" s="15">
+        <v>0</v>
+      </c>
+      <c r="C117" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="D117" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E117" s="15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F117" s="15">
+        <v>9</v>
+      </c>
+      <c r="G117" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="H117" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="I117" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="J117" s="15">
+        <v>0</v>
+      </c>
+      <c r="K117" s="15">
+        <v>0</v>
+      </c>
+      <c r="L117" s="15">
+        <v>0</v>
+      </c>
+      <c r="M117" s="15">
+        <v>-1.9</v>
+      </c>
+      <c r="N117" s="15">
+        <v>-1.6</v>
+      </c>
+      <c r="O117" s="15">
+        <v>-0.7</v>
+      </c>
+      <c r="P117" s="15">
+        <v>0.93602050000000003</v>
+      </c>
+      <c r="Q117" s="15">
+        <v>0.10400230000000001</v>
+      </c>
+      <c r="R117" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="S117" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="T117" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="U117" s="15">
+        <v>3.1471809999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A118" s="13">
+        <v>10</v>
+      </c>
+      <c r="B118" s="15">
+        <v>0</v>
+      </c>
+      <c r="C118" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="D118" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E118" s="15">
+        <v>8.6</v>
+      </c>
+      <c r="F118" s="15">
+        <v>9</v>
+      </c>
+      <c r="G118" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="H118" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="I118" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="J118" s="15">
+        <v>0</v>
+      </c>
+      <c r="K118" s="15">
+        <v>0</v>
+      </c>
+      <c r="L118" s="15">
+        <v>0</v>
+      </c>
+      <c r="M118" s="15">
+        <v>-1.9</v>
+      </c>
+      <c r="N118" s="15">
+        <v>-1.6</v>
+      </c>
+      <c r="O118" s="15">
+        <v>-0.7</v>
+      </c>
+      <c r="P118" s="15">
+        <v>0.93602050000000003</v>
+      </c>
+      <c r="Q118" s="15">
+        <v>0.10400230000000001</v>
+      </c>
+      <c r="R118" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="S118" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="T118" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="U118" s="15">
+        <v>3.5055800000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A119" s="13">
+        <v>11</v>
+      </c>
+      <c r="B119" s="15">
+        <v>0</v>
+      </c>
+      <c r="C119" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="D119" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E119" s="15">
+        <v>9</v>
+      </c>
+      <c r="F119" s="15">
+        <v>9</v>
+      </c>
+      <c r="G119" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="H119" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="I119" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="J119" s="15">
+        <v>0</v>
+      </c>
+      <c r="K119" s="15">
+        <v>0</v>
+      </c>
+      <c r="L119" s="15">
+        <v>0</v>
+      </c>
+      <c r="M119" s="15">
+        <v>-1.9</v>
+      </c>
+      <c r="N119" s="15">
+        <v>-1.6</v>
+      </c>
+      <c r="O119" s="15">
+        <v>-0.7</v>
+      </c>
+      <c r="P119" s="15">
+        <v>0.93602050000000003</v>
+      </c>
+      <c r="Q119" s="15">
+        <v>0.10400230000000001</v>
+      </c>
+      <c r="R119" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="S119" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="T119" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="U119" s="15">
+        <v>3.8639790000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D121">
+        <v>0.9</v>
+      </c>
+      <c r="E121">
+        <v>5</v>
+      </c>
+      <c r="F121">
+        <v>9</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>-0.5</v>
+      </c>
+      <c r="I121">
+        <v>0.5</v>
+      </c>
+      <c r="J121">
+        <v>1.3</v>
+      </c>
+      <c r="K121">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0.8</v>
+      </c>
+      <c r="N121">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="O121">
+        <v>0.5</v>
+      </c>
+      <c r="P121">
+        <v>4.6454874999999998</v>
+      </c>
+      <c r="Q121">
+        <v>0.69205417000000002</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>1.5397289999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D122">
+        <v>0.9</v>
+      </c>
+      <c r="E122">
+        <v>5.4</v>
+      </c>
+      <c r="F122">
+        <v>9</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>-0.5</v>
+      </c>
+      <c r="I122">
+        <v>0.5</v>
+      </c>
+      <c r="J122">
+        <v>1.3</v>
+      </c>
+      <c r="K122">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0.8</v>
+      </c>
+      <c r="N122">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="O122">
+        <v>0.5</v>
+      </c>
+      <c r="P122">
+        <v>4.6454874999999998</v>
+      </c>
+      <c r="Q122">
+        <v>0.69205417000000002</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>1.6629080000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21">
+      <c r="A123">
+        <v>3</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D123">
+        <v>0.9</v>
+      </c>
+      <c r="E123">
+        <v>5.8</v>
+      </c>
+      <c r="F123">
+        <v>9</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>-0.5</v>
+      </c>
+      <c r="I123">
+        <v>0.5</v>
+      </c>
+      <c r="J123">
+        <v>1.3</v>
+      </c>
+      <c r="K123">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0.8</v>
+      </c>
+      <c r="N123">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="O123">
+        <v>0.5</v>
+      </c>
+      <c r="P123">
+        <v>4.6454874999999998</v>
+      </c>
+      <c r="Q123">
+        <v>0.69205417000000002</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>1.7860860000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21">
+      <c r="A124">
+        <v>4</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D124">
+        <v>0.9</v>
+      </c>
+      <c r="E124">
+        <v>6.2</v>
+      </c>
+      <c r="F124">
+        <v>9</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>-0.5</v>
+      </c>
+      <c r="I124">
+        <v>0.5</v>
+      </c>
+      <c r="J124">
+        <v>1.3</v>
+      </c>
+      <c r="K124">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0.8</v>
+      </c>
+      <c r="N124">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="O124">
+        <v>0.5</v>
+      </c>
+      <c r="P124">
+        <v>4.6454874999999998</v>
+      </c>
+      <c r="Q124">
+        <v>0.69205417000000002</v>
+      </c>
+      <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>1.9092640000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D125">
+        <v>0.9</v>
+      </c>
+      <c r="E125">
+        <v>6.6</v>
+      </c>
+      <c r="F125">
+        <v>9</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>-0.5</v>
+      </c>
+      <c r="I125">
+        <v>0.5</v>
+      </c>
+      <c r="J125">
+        <v>1.3</v>
+      </c>
+      <c r="K125">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0.8</v>
+      </c>
+      <c r="N125">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="O125">
+        <v>0.5</v>
+      </c>
+      <c r="P125">
+        <v>4.6454874999999998</v>
+      </c>
+      <c r="Q125">
+        <v>0.69205417000000002</v>
+      </c>
+      <c r="R125">
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>2.0324430000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21">
+      <c r="A126">
+        <v>6</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D126">
+        <v>0.9</v>
+      </c>
+      <c r="E126">
+        <v>7</v>
+      </c>
+      <c r="F126">
+        <v>9</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>-0.5</v>
+      </c>
+      <c r="I126">
+        <v>0.5</v>
+      </c>
+      <c r="J126">
+        <v>1.3</v>
+      </c>
+      <c r="K126">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0.8</v>
+      </c>
+      <c r="N126">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="O126">
+        <v>0.5</v>
+      </c>
+      <c r="P126">
+        <v>4.6454874999999998</v>
+      </c>
+      <c r="Q126">
+        <v>0.69205417000000002</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>2.155621</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21">
+      <c r="A127">
+        <v>7</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D127">
+        <v>0.9</v>
+      </c>
+      <c r="E127">
+        <v>7.4</v>
+      </c>
+      <c r="F127">
+        <v>9</v>
+      </c>
+      <c r="G127">
+        <v>1.8</v>
+      </c>
+      <c r="H127">
+        <v>0.7</v>
+      </c>
+      <c r="I127">
+        <v>1.9</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>-1.9</v>
+      </c>
+      <c r="N127">
+        <v>-1.8</v>
+      </c>
+      <c r="O127">
+        <v>-0.7</v>
+      </c>
+      <c r="P127">
+        <v>0.82071479999999997</v>
+      </c>
+      <c r="Q127">
+        <v>9.1190530000000006E-2</v>
+      </c>
+      <c r="R127">
+        <v>1.8</v>
+      </c>
+      <c r="S127">
+        <v>1.2</v>
+      </c>
+      <c r="T127">
+        <v>1.4</v>
+      </c>
+      <c r="U127">
+        <v>2.3251900000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21">
+      <c r="A128">
+        <v>8</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D128">
+        <v>0.9</v>
+      </c>
+      <c r="E128">
+        <v>7.8</v>
+      </c>
+      <c r="F128">
+        <v>9</v>
+      </c>
+      <c r="G128">
+        <v>1.8</v>
+      </c>
+      <c r="H128">
+        <v>0.7</v>
+      </c>
+      <c r="I128">
+        <v>1.9</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>-1.9</v>
+      </c>
+      <c r="N128">
+        <v>-1.8</v>
+      </c>
+      <c r="O128">
+        <v>-0.7</v>
+      </c>
+      <c r="P128">
+        <v>0.82071479999999997</v>
+      </c>
+      <c r="Q128">
+        <v>9.1190530000000006E-2</v>
+      </c>
+      <c r="R128">
+        <v>1.8</v>
+      </c>
+      <c r="S128">
+        <v>1.2</v>
+      </c>
+      <c r="T128">
+        <v>1.4</v>
+      </c>
+      <c r="U128">
+        <v>2.688714</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21">
+      <c r="A129">
+        <v>9</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D129">
+        <v>0.9</v>
+      </c>
+      <c r="E129">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F129">
+        <v>9</v>
+      </c>
+      <c r="G129">
+        <v>1.8</v>
+      </c>
+      <c r="H129">
+        <v>0.7</v>
+      </c>
+      <c r="I129">
+        <v>1.9</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>-1.9</v>
+      </c>
+      <c r="N129">
+        <v>-1.8</v>
+      </c>
+      <c r="O129">
+        <v>-0.7</v>
+      </c>
+      <c r="P129">
+        <v>0.82071479999999997</v>
+      </c>
+      <c r="Q129">
+        <v>9.1190530000000006E-2</v>
+      </c>
+      <c r="R129">
+        <v>1.8</v>
+      </c>
+      <c r="S129">
+        <v>1.2</v>
+      </c>
+      <c r="T129">
+        <v>1.4</v>
+      </c>
+      <c r="U129">
+        <v>3.052238</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21">
+      <c r="A130">
+        <v>10</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D130">
+        <v>0.9</v>
+      </c>
+      <c r="E130">
+        <v>8.6</v>
+      </c>
+      <c r="F130">
+        <v>9</v>
+      </c>
+      <c r="G130">
+        <v>1.8</v>
+      </c>
+      <c r="H130">
+        <v>0.7</v>
+      </c>
+      <c r="I130">
+        <v>1.9</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>-1.9</v>
+      </c>
+      <c r="N130">
+        <v>-1.8</v>
+      </c>
+      <c r="O130">
+        <v>-0.7</v>
+      </c>
+      <c r="P130">
+        <v>0.82071479999999997</v>
+      </c>
+      <c r="Q130">
+        <v>9.1190530000000006E-2</v>
+      </c>
+      <c r="R130">
+        <v>1.8</v>
+      </c>
+      <c r="S130">
+        <v>1.2</v>
+      </c>
+      <c r="T130">
+        <v>1.4</v>
+      </c>
+      <c r="U130">
+        <v>3.4157609999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21">
+      <c r="A131">
+        <v>11</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D131">
+        <v>0.9</v>
+      </c>
+      <c r="E131">
+        <v>9</v>
+      </c>
+      <c r="F131">
+        <v>9</v>
+      </c>
+      <c r="G131">
+        <v>1.8</v>
+      </c>
+      <c r="H131">
+        <v>0.7</v>
+      </c>
+      <c r="I131">
+        <v>1.9</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>-1.9</v>
+      </c>
+      <c r="N131">
+        <v>-1.8</v>
+      </c>
+      <c r="O131">
+        <v>-0.7</v>
+      </c>
+      <c r="P131">
+        <v>0.82071479999999997</v>
+      </c>
+      <c r="Q131">
+        <v>9.1190530000000006E-2</v>
+      </c>
+      <c r="R131">
+        <v>1.8</v>
+      </c>
+      <c r="S131">
+        <v>1.2</v>
+      </c>
+      <c r="T131">
+        <v>1.4</v>
+      </c>
+      <c r="U131">
+        <v>3.7792849999999998</v>
       </c>
     </row>
   </sheetData>

--- a/WA WB 4 to 12.xlsx
+++ b/WA WB 4 to 12.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
   <si>
     <t>al</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>sz</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -5451,10 +5454,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U131"/>
+  <dimension ref="A1:U191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:U131"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="D180" sqref="D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13201,6 +13204,3584 @@
         <v>3.7792849999999998</v>
       </c>
     </row>
+    <row r="132" spans="1:21" ht="15.75" thickBot="1"/>
+    <row r="133" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A133" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B133" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C133" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D133" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="E133" s="15">
+        <v>5</v>
+      </c>
+      <c r="F133" s="15">
+        <v>8</v>
+      </c>
+      <c r="G133" s="15">
+        <v>1</v>
+      </c>
+      <c r="H133" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I133" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J133" s="15">
+        <v>0</v>
+      </c>
+      <c r="K133" s="15">
+        <v>0</v>
+      </c>
+      <c r="L133" s="15">
+        <v>0</v>
+      </c>
+      <c r="M133" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N133" s="15">
+        <v>-1.3</v>
+      </c>
+      <c r="O133" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="P133" s="15">
+        <v>2.3942700000000001</v>
+      </c>
+      <c r="Q133" s="15">
+        <v>0.29928369999999999</v>
+      </c>
+      <c r="R133" s="15">
+        <v>1</v>
+      </c>
+      <c r="S133" s="15">
+        <v>0</v>
+      </c>
+      <c r="T133" s="15">
+        <v>0</v>
+      </c>
+      <c r="U133" s="15">
+        <v>2.5035810000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A134" s="13">
+        <v>2</v>
+      </c>
+      <c r="B134" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C134" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D134" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="E134" s="15">
+        <v>5.4</v>
+      </c>
+      <c r="F134" s="15">
+        <v>8</v>
+      </c>
+      <c r="G134" s="15">
+        <v>1</v>
+      </c>
+      <c r="H134" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I134" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J134" s="15">
+        <v>0</v>
+      </c>
+      <c r="K134" s="15">
+        <v>0</v>
+      </c>
+      <c r="L134" s="15">
+        <v>0</v>
+      </c>
+      <c r="M134" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N134" s="15">
+        <v>-1.3</v>
+      </c>
+      <c r="O134" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="P134" s="15">
+        <v>2.3942700000000001</v>
+      </c>
+      <c r="Q134" s="15">
+        <v>0.29928369999999999</v>
+      </c>
+      <c r="R134" s="15">
+        <v>1</v>
+      </c>
+      <c r="S134" s="15">
+        <v>0</v>
+      </c>
+      <c r="T134" s="15">
+        <v>0</v>
+      </c>
+      <c r="U134" s="15">
+        <v>2.783868</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A135" s="13">
+        <v>3</v>
+      </c>
+      <c r="B135" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C135" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D135" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="E135" s="15">
+        <v>5.8</v>
+      </c>
+      <c r="F135" s="15">
+        <v>8</v>
+      </c>
+      <c r="G135" s="15">
+        <v>1</v>
+      </c>
+      <c r="H135" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I135" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J135" s="15">
+        <v>0</v>
+      </c>
+      <c r="K135" s="15">
+        <v>0</v>
+      </c>
+      <c r="L135" s="15">
+        <v>0</v>
+      </c>
+      <c r="M135" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N135" s="15">
+        <v>-1.3</v>
+      </c>
+      <c r="O135" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="P135" s="15">
+        <v>2.3942700000000001</v>
+      </c>
+      <c r="Q135" s="15">
+        <v>0.29928369999999999</v>
+      </c>
+      <c r="R135" s="15">
+        <v>1</v>
+      </c>
+      <c r="S135" s="15">
+        <v>0</v>
+      </c>
+      <c r="T135" s="15">
+        <v>0</v>
+      </c>
+      <c r="U135" s="15">
+        <v>3.0641539999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A136" s="13">
+        <v>4</v>
+      </c>
+      <c r="B136" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C136" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D136" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="E136" s="15">
+        <v>6.2</v>
+      </c>
+      <c r="F136" s="15">
+        <v>8</v>
+      </c>
+      <c r="G136" s="15">
+        <v>1</v>
+      </c>
+      <c r="H136" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I136" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J136" s="15">
+        <v>0</v>
+      </c>
+      <c r="K136" s="15">
+        <v>0</v>
+      </c>
+      <c r="L136" s="15">
+        <v>0</v>
+      </c>
+      <c r="M136" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N136" s="15">
+        <v>-1.3</v>
+      </c>
+      <c r="O136" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="P136" s="15">
+        <v>2.3942700000000001</v>
+      </c>
+      <c r="Q136" s="15">
+        <v>0.29928369999999999</v>
+      </c>
+      <c r="R136" s="15">
+        <v>1</v>
+      </c>
+      <c r="S136" s="15">
+        <v>0</v>
+      </c>
+      <c r="T136" s="15">
+        <v>0</v>
+      </c>
+      <c r="U136" s="15">
+        <v>3.3444410000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A137" s="13">
+        <v>5</v>
+      </c>
+      <c r="B137" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C137" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D137" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="E137" s="15">
+        <v>6.6</v>
+      </c>
+      <c r="F137" s="15">
+        <v>8</v>
+      </c>
+      <c r="G137" s="15">
+        <v>1</v>
+      </c>
+      <c r="H137" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I137" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J137" s="15">
+        <v>0</v>
+      </c>
+      <c r="K137" s="15">
+        <v>0</v>
+      </c>
+      <c r="L137" s="15">
+        <v>0</v>
+      </c>
+      <c r="M137" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N137" s="15">
+        <v>-1.3</v>
+      </c>
+      <c r="O137" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="P137" s="15">
+        <v>2.3942700000000001</v>
+      </c>
+      <c r="Q137" s="15">
+        <v>0.29928369999999999</v>
+      </c>
+      <c r="R137" s="15">
+        <v>1</v>
+      </c>
+      <c r="S137" s="15">
+        <v>0</v>
+      </c>
+      <c r="T137" s="15">
+        <v>0</v>
+      </c>
+      <c r="U137" s="15">
+        <v>3.624727</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A138" s="13">
+        <v>6</v>
+      </c>
+      <c r="B138" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C138" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D138" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="E138" s="15">
+        <v>7</v>
+      </c>
+      <c r="F138" s="15">
+        <v>8</v>
+      </c>
+      <c r="G138" s="15">
+        <v>1</v>
+      </c>
+      <c r="H138" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I138" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J138" s="15">
+        <v>0</v>
+      </c>
+      <c r="K138" s="15">
+        <v>0</v>
+      </c>
+      <c r="L138" s="15">
+        <v>0</v>
+      </c>
+      <c r="M138" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N138" s="15">
+        <v>-1.3</v>
+      </c>
+      <c r="O138" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="P138" s="15">
+        <v>2.3942700000000001</v>
+      </c>
+      <c r="Q138" s="15">
+        <v>0.29928369999999999</v>
+      </c>
+      <c r="R138" s="15">
+        <v>1</v>
+      </c>
+      <c r="S138" s="15">
+        <v>0</v>
+      </c>
+      <c r="T138" s="15">
+        <v>0</v>
+      </c>
+      <c r="U138" s="15">
+        <v>3.905014</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A139" s="13">
+        <v>7</v>
+      </c>
+      <c r="B139" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C139" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D139" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="E139" s="15">
+        <v>7.4</v>
+      </c>
+      <c r="F139" s="15">
+        <v>8</v>
+      </c>
+      <c r="G139" s="15">
+        <v>1</v>
+      </c>
+      <c r="H139" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I139" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J139" s="15">
+        <v>0</v>
+      </c>
+      <c r="K139" s="15">
+        <v>0</v>
+      </c>
+      <c r="L139" s="15">
+        <v>0</v>
+      </c>
+      <c r="M139" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N139" s="15">
+        <v>-1.3</v>
+      </c>
+      <c r="O139" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="P139" s="15">
+        <v>2.3942700000000001</v>
+      </c>
+      <c r="Q139" s="15">
+        <v>0.29928369999999999</v>
+      </c>
+      <c r="R139" s="15">
+        <v>1</v>
+      </c>
+      <c r="S139" s="15">
+        <v>0</v>
+      </c>
+      <c r="T139" s="15">
+        <v>0</v>
+      </c>
+      <c r="U139" s="15">
+        <v>4.1852999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A140" s="13">
+        <v>8</v>
+      </c>
+      <c r="B140" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C140" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D140" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="E140" s="15">
+        <v>7.8</v>
+      </c>
+      <c r="F140" s="15">
+        <v>8</v>
+      </c>
+      <c r="G140" s="15">
+        <v>1</v>
+      </c>
+      <c r="H140" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I140" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J140" s="15">
+        <v>0</v>
+      </c>
+      <c r="K140" s="15">
+        <v>0</v>
+      </c>
+      <c r="L140" s="15">
+        <v>0</v>
+      </c>
+      <c r="M140" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N140" s="15">
+        <v>-1.3</v>
+      </c>
+      <c r="O140" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="P140" s="15">
+        <v>2.3942700000000001</v>
+      </c>
+      <c r="Q140" s="15">
+        <v>0.29928369999999999</v>
+      </c>
+      <c r="R140" s="15">
+        <v>1</v>
+      </c>
+      <c r="S140" s="15">
+        <v>0</v>
+      </c>
+      <c r="T140" s="15">
+        <v>0</v>
+      </c>
+      <c r="U140" s="15">
+        <v>4.4655870000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A141" s="13">
+        <v>9</v>
+      </c>
+      <c r="B141" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C141" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D141" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="E141" s="15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F141" s="15">
+        <v>8</v>
+      </c>
+      <c r="G141" s="15">
+        <v>1</v>
+      </c>
+      <c r="H141" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I141" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J141" s="15">
+        <v>0</v>
+      </c>
+      <c r="K141" s="15">
+        <v>0</v>
+      </c>
+      <c r="L141" s="15">
+        <v>0</v>
+      </c>
+      <c r="M141" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N141" s="15">
+        <v>-1.3</v>
+      </c>
+      <c r="O141" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="P141" s="15">
+        <v>2.3942700000000001</v>
+      </c>
+      <c r="Q141" s="15">
+        <v>0.29928369999999999</v>
+      </c>
+      <c r="R141" s="15">
+        <v>1</v>
+      </c>
+      <c r="S141" s="15">
+        <v>0</v>
+      </c>
+      <c r="T141" s="15">
+        <v>0</v>
+      </c>
+      <c r="U141" s="15">
+        <v>4.7458729999999996</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A142" s="13">
+        <v>10</v>
+      </c>
+      <c r="B142" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C142" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D142" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="E142" s="15">
+        <v>8.6</v>
+      </c>
+      <c r="F142" s="15">
+        <v>8</v>
+      </c>
+      <c r="G142" s="15">
+        <v>1</v>
+      </c>
+      <c r="H142" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I142" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J142" s="15">
+        <v>0</v>
+      </c>
+      <c r="K142" s="15">
+        <v>0</v>
+      </c>
+      <c r="L142" s="15">
+        <v>0</v>
+      </c>
+      <c r="M142" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N142" s="15">
+        <v>-1.3</v>
+      </c>
+      <c r="O142" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="P142" s="15">
+        <v>2.3942700000000001</v>
+      </c>
+      <c r="Q142" s="15">
+        <v>0.29928369999999999</v>
+      </c>
+      <c r="R142" s="15">
+        <v>1</v>
+      </c>
+      <c r="S142" s="15">
+        <v>0</v>
+      </c>
+      <c r="T142" s="15">
+        <v>0</v>
+      </c>
+      <c r="U142" s="15">
+        <v>5.02616</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A143" s="13">
+        <v>11</v>
+      </c>
+      <c r="B143" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C143" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D143" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="E143" s="15">
+        <v>9</v>
+      </c>
+      <c r="F143" s="15">
+        <v>8</v>
+      </c>
+      <c r="G143" s="15">
+        <v>1</v>
+      </c>
+      <c r="H143" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="I143" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J143" s="15">
+        <v>0</v>
+      </c>
+      <c r="K143" s="15">
+        <v>0</v>
+      </c>
+      <c r="L143" s="15">
+        <v>0</v>
+      </c>
+      <c r="M143" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N143" s="15">
+        <v>-1.3</v>
+      </c>
+      <c r="O143" s="15">
+        <v>-0.2</v>
+      </c>
+      <c r="P143" s="15">
+        <v>2.0329989999999998</v>
+      </c>
+      <c r="Q143" s="15">
+        <v>0.25412489999999999</v>
+      </c>
+      <c r="R143" s="15">
+        <v>1</v>
+      </c>
+      <c r="S143" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="T143" s="15">
+        <v>0</v>
+      </c>
+      <c r="U143" s="15">
+        <v>5.3128760000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" ht="15.75" thickBot="1"/>
+    <row r="145" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A145" s="13">
+        <v>1</v>
+      </c>
+      <c r="B145" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C145" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D145" s="15">
+        <v>1</v>
+      </c>
+      <c r="E145" s="15">
+        <v>5</v>
+      </c>
+      <c r="F145" s="15">
+        <v>8</v>
+      </c>
+      <c r="G145" s="15">
+        <v>0</v>
+      </c>
+      <c r="H145" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="I145" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J145" s="15">
+        <v>0</v>
+      </c>
+      <c r="K145" s="15">
+        <v>0</v>
+      </c>
+      <c r="L145" s="15">
+        <v>0</v>
+      </c>
+      <c r="M145" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N145" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="O145" s="15">
+        <v>0</v>
+      </c>
+      <c r="P145" s="15">
+        <v>2.9423319999999999</v>
+      </c>
+      <c r="Q145" s="15">
+        <v>0.36779149999999999</v>
+      </c>
+      <c r="R145" s="15">
+        <v>0</v>
+      </c>
+      <c r="S145" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="T145" s="15">
+        <v>0</v>
+      </c>
+      <c r="U145" s="15">
+        <v>2.961042</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A146" s="13">
+        <v>2</v>
+      </c>
+      <c r="B146" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C146" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D146" s="15">
+        <v>1</v>
+      </c>
+      <c r="E146" s="15">
+        <v>5.4</v>
+      </c>
+      <c r="F146" s="15">
+        <v>8</v>
+      </c>
+      <c r="G146" s="15">
+        <v>0</v>
+      </c>
+      <c r="H146" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="I146" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J146" s="15">
+        <v>0</v>
+      </c>
+      <c r="K146" s="15">
+        <v>0</v>
+      </c>
+      <c r="L146" s="15">
+        <v>0</v>
+      </c>
+      <c r="M146" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N146" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="O146" s="15">
+        <v>0</v>
+      </c>
+      <c r="P146" s="15">
+        <v>2.9423319999999999</v>
+      </c>
+      <c r="Q146" s="15">
+        <v>0.36779149999999999</v>
+      </c>
+      <c r="R146" s="15">
+        <v>0</v>
+      </c>
+      <c r="S146" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="T146" s="15">
+        <v>0</v>
+      </c>
+      <c r="U146" s="15">
+        <v>3.2139259999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A147" s="13">
+        <v>3</v>
+      </c>
+      <c r="B147" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C147" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D147" s="15">
+        <v>1</v>
+      </c>
+      <c r="E147" s="15">
+        <v>5.8</v>
+      </c>
+      <c r="F147" s="15">
+        <v>8</v>
+      </c>
+      <c r="G147" s="15">
+        <v>0</v>
+      </c>
+      <c r="H147" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="I147" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J147" s="15">
+        <v>0</v>
+      </c>
+      <c r="K147" s="15">
+        <v>0</v>
+      </c>
+      <c r="L147" s="15">
+        <v>0</v>
+      </c>
+      <c r="M147" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N147" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="O147" s="15">
+        <v>0</v>
+      </c>
+      <c r="P147" s="15">
+        <v>2.9423319999999999</v>
+      </c>
+      <c r="Q147" s="15">
+        <v>0.36779149999999999</v>
+      </c>
+      <c r="R147" s="15">
+        <v>0</v>
+      </c>
+      <c r="S147" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="T147" s="15">
+        <v>0</v>
+      </c>
+      <c r="U147" s="15">
+        <v>3.466809</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A148" s="13">
+        <v>4</v>
+      </c>
+      <c r="B148" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C148" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D148" s="15">
+        <v>1</v>
+      </c>
+      <c r="E148" s="15">
+        <v>6.2</v>
+      </c>
+      <c r="F148" s="15">
+        <v>8</v>
+      </c>
+      <c r="G148" s="15">
+        <v>0</v>
+      </c>
+      <c r="H148" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="I148" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J148" s="15">
+        <v>0</v>
+      </c>
+      <c r="K148" s="15">
+        <v>0</v>
+      </c>
+      <c r="L148" s="15">
+        <v>0</v>
+      </c>
+      <c r="M148" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N148" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="O148" s="15">
+        <v>0</v>
+      </c>
+      <c r="P148" s="15">
+        <v>2.9423319999999999</v>
+      </c>
+      <c r="Q148" s="15">
+        <v>0.36779149999999999</v>
+      </c>
+      <c r="R148" s="15">
+        <v>0</v>
+      </c>
+      <c r="S148" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="T148" s="15">
+        <v>0</v>
+      </c>
+      <c r="U148" s="15">
+        <v>3.7196929999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A149" s="13">
+        <v>5</v>
+      </c>
+      <c r="B149" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C149" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D149" s="15">
+        <v>1</v>
+      </c>
+      <c r="E149" s="15">
+        <v>6.6</v>
+      </c>
+      <c r="F149" s="15">
+        <v>8</v>
+      </c>
+      <c r="G149" s="15">
+        <v>0</v>
+      </c>
+      <c r="H149" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="I149" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J149" s="15">
+        <v>0</v>
+      </c>
+      <c r="K149" s="15">
+        <v>0</v>
+      </c>
+      <c r="L149" s="15">
+        <v>0</v>
+      </c>
+      <c r="M149" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N149" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="O149" s="15">
+        <v>0</v>
+      </c>
+      <c r="P149" s="15">
+        <v>2.9423319999999999</v>
+      </c>
+      <c r="Q149" s="15">
+        <v>0.36779149999999999</v>
+      </c>
+      <c r="R149" s="15">
+        <v>0</v>
+      </c>
+      <c r="S149" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="T149" s="15">
+        <v>0</v>
+      </c>
+      <c r="U149" s="15">
+        <v>3.9725760000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A150" s="13">
+        <v>6</v>
+      </c>
+      <c r="B150" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C150" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D150" s="15">
+        <v>1</v>
+      </c>
+      <c r="E150" s="15">
+        <v>7</v>
+      </c>
+      <c r="F150" s="15">
+        <v>8</v>
+      </c>
+      <c r="G150" s="15">
+        <v>0</v>
+      </c>
+      <c r="H150" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="I150" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J150" s="15">
+        <v>0</v>
+      </c>
+      <c r="K150" s="15">
+        <v>0</v>
+      </c>
+      <c r="L150" s="15">
+        <v>0</v>
+      </c>
+      <c r="M150" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N150" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="O150" s="15">
+        <v>0</v>
+      </c>
+      <c r="P150" s="15">
+        <v>2.9423319999999999</v>
+      </c>
+      <c r="Q150" s="15">
+        <v>0.36779149999999999</v>
+      </c>
+      <c r="R150" s="15">
+        <v>0</v>
+      </c>
+      <c r="S150" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="T150" s="15">
+        <v>0</v>
+      </c>
+      <c r="U150" s="15">
+        <v>4.2254589999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A151" s="13">
+        <v>7</v>
+      </c>
+      <c r="B151" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C151" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D151" s="15">
+        <v>1</v>
+      </c>
+      <c r="E151" s="15">
+        <v>7.4</v>
+      </c>
+      <c r="F151" s="15">
+        <v>8</v>
+      </c>
+      <c r="G151" s="15">
+        <v>0</v>
+      </c>
+      <c r="H151" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="I151" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J151" s="15">
+        <v>0</v>
+      </c>
+      <c r="K151" s="15">
+        <v>0</v>
+      </c>
+      <c r="L151" s="15">
+        <v>0</v>
+      </c>
+      <c r="M151" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N151" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="O151" s="15">
+        <v>0</v>
+      </c>
+      <c r="P151" s="15">
+        <v>2.9423319999999999</v>
+      </c>
+      <c r="Q151" s="15">
+        <v>0.36779149999999999</v>
+      </c>
+      <c r="R151" s="15">
+        <v>0</v>
+      </c>
+      <c r="S151" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="T151" s="15">
+        <v>0</v>
+      </c>
+      <c r="U151" s="15">
+        <v>4.4783429999999997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A152" s="13">
+        <v>8</v>
+      </c>
+      <c r="B152" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C152" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D152" s="15">
+        <v>1</v>
+      </c>
+      <c r="E152" s="15">
+        <v>7.8</v>
+      </c>
+      <c r="F152" s="15">
+        <v>8</v>
+      </c>
+      <c r="G152" s="15">
+        <v>0</v>
+      </c>
+      <c r="H152" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="I152" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J152" s="15">
+        <v>0</v>
+      </c>
+      <c r="K152" s="15">
+        <v>0</v>
+      </c>
+      <c r="L152" s="15">
+        <v>0</v>
+      </c>
+      <c r="M152" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N152" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="O152" s="15">
+        <v>0</v>
+      </c>
+      <c r="P152" s="15">
+        <v>2.9423319999999999</v>
+      </c>
+      <c r="Q152" s="15">
+        <v>0.36779149999999999</v>
+      </c>
+      <c r="R152" s="15">
+        <v>0</v>
+      </c>
+      <c r="S152" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="T152" s="15">
+        <v>0</v>
+      </c>
+      <c r="U152" s="15">
+        <v>4.7312260000000004</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A153" s="13">
+        <v>9</v>
+      </c>
+      <c r="B153" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C153" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D153" s="15">
+        <v>1</v>
+      </c>
+      <c r="E153" s="15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F153" s="15">
+        <v>8</v>
+      </c>
+      <c r="G153" s="15">
+        <v>0</v>
+      </c>
+      <c r="H153" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="I153" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J153" s="15">
+        <v>0</v>
+      </c>
+      <c r="K153" s="15">
+        <v>0</v>
+      </c>
+      <c r="L153" s="15">
+        <v>0</v>
+      </c>
+      <c r="M153" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N153" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="O153" s="15">
+        <v>0</v>
+      </c>
+      <c r="P153" s="15">
+        <v>2.9423319999999999</v>
+      </c>
+      <c r="Q153" s="15">
+        <v>0.36779149999999999</v>
+      </c>
+      <c r="R153" s="15">
+        <v>0</v>
+      </c>
+      <c r="S153" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="T153" s="15">
+        <v>0</v>
+      </c>
+      <c r="U153" s="15">
+        <v>4.9841100000000003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A154" s="13">
+        <v>10</v>
+      </c>
+      <c r="B154" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C154" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D154" s="15">
+        <v>1</v>
+      </c>
+      <c r="E154" s="15">
+        <v>8.6</v>
+      </c>
+      <c r="F154" s="15">
+        <v>8</v>
+      </c>
+      <c r="G154" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H154" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="I154" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J154" s="15">
+        <v>0</v>
+      </c>
+      <c r="K154" s="15">
+        <v>0</v>
+      </c>
+      <c r="L154" s="15">
+        <v>0</v>
+      </c>
+      <c r="M154" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N154" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="O154" s="15">
+        <v>0</v>
+      </c>
+      <c r="P154" s="15">
+        <v>2.7502650000000002</v>
+      </c>
+      <c r="Q154" s="15">
+        <v>0.34378310000000001</v>
+      </c>
+      <c r="R154" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="S154" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="T154" s="15">
+        <v>0</v>
+      </c>
+      <c r="U154" s="15">
+        <v>5.2434649999999996</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A155" s="13">
+        <v>11</v>
+      </c>
+      <c r="B155" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C155" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D155" s="15">
+        <v>1</v>
+      </c>
+      <c r="E155" s="15">
+        <v>9</v>
+      </c>
+      <c r="F155" s="15">
+        <v>8</v>
+      </c>
+      <c r="G155" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H155" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="I155" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J155" s="15">
+        <v>0</v>
+      </c>
+      <c r="K155" s="15">
+        <v>0</v>
+      </c>
+      <c r="L155" s="15">
+        <v>0</v>
+      </c>
+      <c r="M155" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="N155" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="O155" s="15">
+        <v>0</v>
+      </c>
+      <c r="P155" s="15">
+        <v>2.7502650000000002</v>
+      </c>
+      <c r="Q155" s="15">
+        <v>0.34378310000000001</v>
+      </c>
+      <c r="R155" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="S155" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="T155" s="15">
+        <v>0</v>
+      </c>
+      <c r="U155" s="15">
+        <v>5.5059519999999997</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>-0.3</v>
+      </c>
+      <c r="C157">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>5</v>
+      </c>
+      <c r="F157">
+        <v>8</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>-0.5</v>
+      </c>
+      <c r="I157">
+        <v>0.5</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>-0.2</v>
+      </c>
+      <c r="N157">
+        <v>0.371</v>
+      </c>
+      <c r="O157">
+        <v>0.8</v>
+      </c>
+      <c r="P157">
+        <v>4.8060299999999998</v>
+      </c>
+      <c r="Q157">
+        <v>0.60962870000000002</v>
+      </c>
+      <c r="R157">
+        <v>0</v>
+      </c>
+      <c r="S157">
+        <v>0</v>
+      </c>
+      <c r="T157">
+        <v>0</v>
+      </c>
+      <c r="U157">
+        <v>1.951856</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21">
+      <c r="A158">
+        <v>2</v>
+      </c>
+      <c r="B158">
+        <v>-0.3</v>
+      </c>
+      <c r="C158">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>5.4</v>
+      </c>
+      <c r="F158">
+        <v>8</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>-0.5</v>
+      </c>
+      <c r="I158">
+        <v>0.5</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>-0.2</v>
+      </c>
+      <c r="N158">
+        <v>0.371</v>
+      </c>
+      <c r="O158">
+        <v>0.8</v>
+      </c>
+      <c r="P158">
+        <v>4.8060299999999998</v>
+      </c>
+      <c r="Q158">
+        <v>0.60962870000000002</v>
+      </c>
+      <c r="R158">
+        <v>0</v>
+      </c>
+      <c r="S158">
+        <v>0</v>
+      </c>
+      <c r="T158">
+        <v>0</v>
+      </c>
+      <c r="U158">
+        <v>2.1080049999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21">
+      <c r="A159">
+        <v>3</v>
+      </c>
+      <c r="B159">
+        <v>-0.3</v>
+      </c>
+      <c r="C159">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>5.8</v>
+      </c>
+      <c r="F159">
+        <v>8</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>-0.5</v>
+      </c>
+      <c r="I159">
+        <v>0.5</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>-0.2</v>
+      </c>
+      <c r="N159">
+        <v>0.371</v>
+      </c>
+      <c r="O159">
+        <v>0.8</v>
+      </c>
+      <c r="P159">
+        <v>4.8060299999999998</v>
+      </c>
+      <c r="Q159">
+        <v>0.60962870000000002</v>
+      </c>
+      <c r="R159">
+        <v>0</v>
+      </c>
+      <c r="S159">
+        <v>0</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <v>2.2641529999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21">
+      <c r="A160">
+        <v>4</v>
+      </c>
+      <c r="B160">
+        <v>-0.3</v>
+      </c>
+      <c r="C160">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>6.2</v>
+      </c>
+      <c r="F160">
+        <v>8</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>-0.5</v>
+      </c>
+      <c r="I160">
+        <v>0.5</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>-0.2</v>
+      </c>
+      <c r="N160">
+        <v>0.371</v>
+      </c>
+      <c r="O160">
+        <v>0.8</v>
+      </c>
+      <c r="P160">
+        <v>4.8060299999999998</v>
+      </c>
+      <c r="Q160">
+        <v>0.60962870000000002</v>
+      </c>
+      <c r="R160">
+        <v>0</v>
+      </c>
+      <c r="S160">
+        <v>0</v>
+      </c>
+      <c r="T160">
+        <v>0</v>
+      </c>
+      <c r="U160">
+        <v>2.420302</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21">
+      <c r="A161">
+        <v>5</v>
+      </c>
+      <c r="B161">
+        <v>-0.3</v>
+      </c>
+      <c r="C161">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>6.6</v>
+      </c>
+      <c r="F161">
+        <v>8</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>-0.5</v>
+      </c>
+      <c r="I161">
+        <v>0.5</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>-0.2</v>
+      </c>
+      <c r="N161">
+        <v>0.371</v>
+      </c>
+      <c r="O161">
+        <v>0.8</v>
+      </c>
+      <c r="P161">
+        <v>4.8060299999999998</v>
+      </c>
+      <c r="Q161">
+        <v>0.60962870000000002</v>
+      </c>
+      <c r="R161">
+        <v>0</v>
+      </c>
+      <c r="S161">
+        <v>0</v>
+      </c>
+      <c r="T161">
+        <v>0</v>
+      </c>
+      <c r="U161">
+        <v>2.5764499999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21">
+      <c r="A162">
+        <v>6</v>
+      </c>
+      <c r="B162">
+        <v>-0.3</v>
+      </c>
+      <c r="C162">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>7</v>
+      </c>
+      <c r="F162">
+        <v>8</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>-0.5</v>
+      </c>
+      <c r="I162">
+        <v>0.5</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>-0.2</v>
+      </c>
+      <c r="N162">
+        <v>0.371</v>
+      </c>
+      <c r="O162">
+        <v>0.8</v>
+      </c>
+      <c r="P162">
+        <v>4.8060299999999998</v>
+      </c>
+      <c r="Q162">
+        <v>0.60962870000000002</v>
+      </c>
+      <c r="R162">
+        <v>0</v>
+      </c>
+      <c r="S162">
+        <v>0</v>
+      </c>
+      <c r="T162">
+        <v>0</v>
+      </c>
+      <c r="U162">
+        <v>2.732599</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163">
+        <v>-0.3</v>
+      </c>
+      <c r="C163">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>7.4</v>
+      </c>
+      <c r="F163">
+        <v>8</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>-0.5</v>
+      </c>
+      <c r="I163">
+        <v>0.5</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>-0.2</v>
+      </c>
+      <c r="N163">
+        <v>0.371</v>
+      </c>
+      <c r="O163">
+        <v>0.8</v>
+      </c>
+      <c r="P163">
+        <v>4.8060299999999998</v>
+      </c>
+      <c r="Q163">
+        <v>0.60962870000000002</v>
+      </c>
+      <c r="R163">
+        <v>0</v>
+      </c>
+      <c r="S163">
+        <v>0</v>
+      </c>
+      <c r="T163">
+        <v>0</v>
+      </c>
+      <c r="U163">
+        <v>2.888747</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21">
+      <c r="A164">
+        <v>8</v>
+      </c>
+      <c r="B164">
+        <v>-0.3</v>
+      </c>
+      <c r="C164">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>7.8</v>
+      </c>
+      <c r="F164">
+        <v>8</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>-0.3</v>
+      </c>
+      <c r="I164">
+        <v>0.5</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>-0.2</v>
+      </c>
+      <c r="N164">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="O164">
+        <v>0.6</v>
+      </c>
+      <c r="P164">
+        <v>4.6387010000000002</v>
+      </c>
+      <c r="Q164">
+        <v>0.58283759999999996</v>
+      </c>
+      <c r="R164">
+        <v>0</v>
+      </c>
+      <c r="S164">
+        <v>0.2</v>
+      </c>
+      <c r="T164">
+        <v>0</v>
+      </c>
+      <c r="U164">
+        <v>3.0538660000000002</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21">
+      <c r="A165">
+        <v>9</v>
+      </c>
+      <c r="B165">
+        <v>-0.3</v>
+      </c>
+      <c r="C165">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F165">
+        <v>8</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>-0.1</v>
+      </c>
+      <c r="I165">
+        <v>0.5</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>-0.2</v>
+      </c>
+      <c r="N165">
+        <v>0.3</v>
+      </c>
+      <c r="O165">
+        <v>0.4</v>
+      </c>
+      <c r="P165">
+        <v>4.4634530000000003</v>
+      </c>
+      <c r="Q165">
+        <v>0.55793159999999997</v>
+      </c>
+      <c r="R165">
+        <v>0</v>
+      </c>
+      <c r="S165">
+        <v>0.4</v>
+      </c>
+      <c r="T165">
+        <v>0</v>
+      </c>
+      <c r="U165">
+        <v>3.224961</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21">
+      <c r="A166">
+        <v>10</v>
+      </c>
+      <c r="B166">
+        <v>-0.3</v>
+      </c>
+      <c r="C166">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>8.6</v>
+      </c>
+      <c r="F166">
+        <v>8</v>
+      </c>
+      <c r="G166">
+        <v>0.8</v>
+      </c>
+      <c r="H166">
+        <v>0.3</v>
+      </c>
+      <c r="I166">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>-0.8</v>
+      </c>
+      <c r="N166">
+        <v>-0.5</v>
+      </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <v>2.7502650000000002</v>
+      </c>
+      <c r="Q166">
+        <v>0.34378310000000001</v>
+      </c>
+      <c r="R166">
+        <v>0.8</v>
+      </c>
+      <c r="S166">
+        <v>0.8</v>
+      </c>
+      <c r="T166">
+        <v>0.6</v>
+      </c>
+      <c r="U166">
+        <v>3.4434650000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21">
+      <c r="A167">
+        <v>11</v>
+      </c>
+      <c r="B167">
+        <v>-0.3</v>
+      </c>
+      <c r="C167">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>9</v>
+      </c>
+      <c r="F167">
+        <v>8</v>
+      </c>
+      <c r="G167">
+        <v>0.8</v>
+      </c>
+      <c r="H167">
+        <v>0.3</v>
+      </c>
+      <c r="I167">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>-0.8</v>
+      </c>
+      <c r="N167">
+        <v>-0.5</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <v>2.7502650000000002</v>
+      </c>
+      <c r="Q167">
+        <v>0.34378310000000001</v>
+      </c>
+      <c r="R167">
+        <v>0.8</v>
+      </c>
+      <c r="S167">
+        <v>0.8</v>
+      </c>
+      <c r="T167">
+        <v>0.6</v>
+      </c>
+      <c r="U167">
+        <v>3.7059519999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" ht="15.75" thickBot="1"/>
+    <row r="169" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A169" s="13">
+        <v>1</v>
+      </c>
+      <c r="B169" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="C169" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D169" s="15">
+        <v>1</v>
+      </c>
+      <c r="E169" s="15">
+        <v>5</v>
+      </c>
+      <c r="F169" s="15">
+        <v>9</v>
+      </c>
+      <c r="G169" s="15">
+        <v>0</v>
+      </c>
+      <c r="H169" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I169" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J169" s="15">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="K169" s="15">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="L169" s="15">
+        <v>0</v>
+      </c>
+      <c r="M169" s="15">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="N169" s="15">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="O169" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="P169" s="15">
+        <v>5.4417010000000001</v>
+      </c>
+      <c r="Q169" s="15">
+        <v>0.6864112</v>
+      </c>
+      <c r="R169" s="15">
+        <v>0</v>
+      </c>
+      <c r="S169" s="15">
+        <v>0</v>
+      </c>
+      <c r="T169" s="15">
+        <v>0</v>
+      </c>
+      <c r="U169" s="15">
+        <v>1.567944</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A170" s="13">
+        <v>2</v>
+      </c>
+      <c r="B170" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="C170" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D170" s="15">
+        <v>1</v>
+      </c>
+      <c r="E170" s="15">
+        <v>5.4</v>
+      </c>
+      <c r="F170" s="15">
+        <v>9</v>
+      </c>
+      <c r="G170" s="15">
+        <v>0</v>
+      </c>
+      <c r="H170" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I170" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="J170" s="15">
+        <v>0</v>
+      </c>
+      <c r="K170" s="15">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="L170" s="15">
+        <v>0</v>
+      </c>
+      <c r="M170" s="15">
+        <v>-0.4</v>
+      </c>
+      <c r="N170" s="15">
+        <v>0.872</v>
+      </c>
+      <c r="O170" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="P170" s="15">
+        <v>5.2545510000000002</v>
+      </c>
+      <c r="Q170" s="15">
+        <v>0.64739460000000004</v>
+      </c>
+      <c r="R170" s="15">
+        <v>0</v>
+      </c>
+      <c r="S170" s="15">
+        <v>0</v>
+      </c>
+      <c r="T170" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="U170" s="15">
+        <v>1.7040690000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A171" s="13">
+        <v>3</v>
+      </c>
+      <c r="B171" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="C171" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D171" s="15">
+        <v>1</v>
+      </c>
+      <c r="E171" s="15">
+        <v>5.8</v>
+      </c>
+      <c r="F171" s="15">
+        <v>9</v>
+      </c>
+      <c r="G171" s="15">
+        <v>0</v>
+      </c>
+      <c r="H171" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I171" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="J171" s="15">
+        <v>0</v>
+      </c>
+      <c r="K171" s="15">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="L171" s="15">
+        <v>0</v>
+      </c>
+      <c r="M171" s="15">
+        <v>-0.4</v>
+      </c>
+      <c r="N171" s="15">
+        <v>0.872</v>
+      </c>
+      <c r="O171" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="P171" s="15">
+        <v>5.2545510000000002</v>
+      </c>
+      <c r="Q171" s="15">
+        <v>0.64739460000000004</v>
+      </c>
+      <c r="R171" s="15">
+        <v>0</v>
+      </c>
+      <c r="S171" s="15">
+        <v>0</v>
+      </c>
+      <c r="T171" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="U171" s="15">
+        <v>1.8451120000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A172" s="13">
+        <v>4</v>
+      </c>
+      <c r="B172" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="C172" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D172" s="15">
+        <v>1</v>
+      </c>
+      <c r="E172" s="15">
+        <v>6.2</v>
+      </c>
+      <c r="F172" s="15">
+        <v>9</v>
+      </c>
+      <c r="G172" s="15">
+        <v>0</v>
+      </c>
+      <c r="H172" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I172" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="J172" s="15">
+        <v>0</v>
+      </c>
+      <c r="K172" s="15">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="L172" s="15">
+        <v>0</v>
+      </c>
+      <c r="M172" s="15">
+        <v>-0.4</v>
+      </c>
+      <c r="N172" s="15">
+        <v>0.872</v>
+      </c>
+      <c r="O172" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="P172" s="15">
+        <v>5.2545510000000002</v>
+      </c>
+      <c r="Q172" s="15">
+        <v>0.64739460000000004</v>
+      </c>
+      <c r="R172" s="15">
+        <v>0</v>
+      </c>
+      <c r="S172" s="15">
+        <v>0</v>
+      </c>
+      <c r="T172" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="U172" s="15">
+        <v>1.986154</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A173" s="13">
+        <v>5</v>
+      </c>
+      <c r="B173" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="C173" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D173" s="15">
+        <v>1</v>
+      </c>
+      <c r="E173" s="15">
+        <v>6.6</v>
+      </c>
+      <c r="F173" s="15">
+        <v>9</v>
+      </c>
+      <c r="G173" s="15">
+        <v>0</v>
+      </c>
+      <c r="H173" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I173" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="J173" s="15">
+        <v>0</v>
+      </c>
+      <c r="K173" s="15">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="L173" s="15">
+        <v>0</v>
+      </c>
+      <c r="M173" s="15">
+        <v>-0.4</v>
+      </c>
+      <c r="N173" s="15">
+        <v>0.872</v>
+      </c>
+      <c r="O173" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="P173" s="15">
+        <v>5.2545510000000002</v>
+      </c>
+      <c r="Q173" s="15">
+        <v>0.64739460000000004</v>
+      </c>
+      <c r="R173" s="15">
+        <v>0</v>
+      </c>
+      <c r="S173" s="15">
+        <v>0</v>
+      </c>
+      <c r="T173" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="U173" s="15">
+        <v>2.1271960000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A174" s="13">
+        <v>6</v>
+      </c>
+      <c r="B174" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="C174" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D174" s="15">
+        <v>1</v>
+      </c>
+      <c r="E174" s="15">
+        <v>7</v>
+      </c>
+      <c r="F174" s="15">
+        <v>9</v>
+      </c>
+      <c r="G174" s="15">
+        <v>0</v>
+      </c>
+      <c r="H174" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I174" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="J174" s="15">
+        <v>0</v>
+      </c>
+      <c r="K174" s="15">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="L174" s="15">
+        <v>0</v>
+      </c>
+      <c r="M174" s="15">
+        <v>-0.4</v>
+      </c>
+      <c r="N174" s="15">
+        <v>0.872</v>
+      </c>
+      <c r="O174" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="P174" s="15">
+        <v>5.2545510000000002</v>
+      </c>
+      <c r="Q174" s="15">
+        <v>0.64739460000000004</v>
+      </c>
+      <c r="R174" s="15">
+        <v>0</v>
+      </c>
+      <c r="S174" s="15">
+        <v>0</v>
+      </c>
+      <c r="T174" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="U174" s="15">
+        <v>2.2682380000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A175" s="13">
+        <v>7</v>
+      </c>
+      <c r="B175" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="C175" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D175" s="15">
+        <v>1</v>
+      </c>
+      <c r="E175" s="15">
+        <v>7.4</v>
+      </c>
+      <c r="F175" s="15">
+        <v>9</v>
+      </c>
+      <c r="G175" s="15">
+        <v>0</v>
+      </c>
+      <c r="H175" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I175" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="J175" s="15">
+        <v>0</v>
+      </c>
+      <c r="K175" s="15">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="L175" s="15">
+        <v>0</v>
+      </c>
+      <c r="M175" s="15">
+        <v>-0.4</v>
+      </c>
+      <c r="N175" s="15">
+        <v>0.872</v>
+      </c>
+      <c r="O175" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="P175" s="15">
+        <v>5.2545510000000002</v>
+      </c>
+      <c r="Q175" s="15">
+        <v>0.64739460000000004</v>
+      </c>
+      <c r="R175" s="15">
+        <v>0</v>
+      </c>
+      <c r="S175" s="15">
+        <v>0</v>
+      </c>
+      <c r="T175" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="U175" s="15">
+        <v>2.4092799999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A176" s="13">
+        <v>8</v>
+      </c>
+      <c r="B176" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="C176" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D176" s="15">
+        <v>1</v>
+      </c>
+      <c r="E176" s="15">
+        <v>7.8</v>
+      </c>
+      <c r="F176" s="15">
+        <v>9</v>
+      </c>
+      <c r="G176" s="15">
+        <v>0</v>
+      </c>
+      <c r="H176" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I176" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="J176" s="15">
+        <v>0</v>
+      </c>
+      <c r="K176" s="15">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="L176" s="15">
+        <v>0</v>
+      </c>
+      <c r="M176" s="15">
+        <v>-0.4</v>
+      </c>
+      <c r="N176" s="15">
+        <v>0.872</v>
+      </c>
+      <c r="O176" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="P176" s="15">
+        <v>5.2545510000000002</v>
+      </c>
+      <c r="Q176" s="15">
+        <v>0.64739460000000004</v>
+      </c>
+      <c r="R176" s="15">
+        <v>0</v>
+      </c>
+      <c r="S176" s="15">
+        <v>0</v>
+      </c>
+      <c r="T176" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="U176" s="15">
+        <v>2.550322</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A177" s="13">
+        <v>9</v>
+      </c>
+      <c r="B177" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="C177" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D177" s="15">
+        <v>1</v>
+      </c>
+      <c r="E177" s="15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F177" s="15">
+        <v>9</v>
+      </c>
+      <c r="G177" s="15">
+        <v>0</v>
+      </c>
+      <c r="H177" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I177" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="J177" s="15">
+        <v>0</v>
+      </c>
+      <c r="K177" s="15">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="L177" s="15">
+        <v>0</v>
+      </c>
+      <c r="M177" s="15">
+        <v>-0.4</v>
+      </c>
+      <c r="N177" s="15">
+        <v>0.872</v>
+      </c>
+      <c r="O177" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="P177" s="15">
+        <v>5.2545510000000002</v>
+      </c>
+      <c r="Q177" s="15">
+        <v>0.64739460000000004</v>
+      </c>
+      <c r="R177" s="15">
+        <v>0</v>
+      </c>
+      <c r="S177" s="15">
+        <v>0</v>
+      </c>
+      <c r="T177" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="U177" s="15">
+        <v>2.6913649999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A178" s="13">
+        <v>10</v>
+      </c>
+      <c r="B178" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="C178" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D178" s="15">
+        <v>1</v>
+      </c>
+      <c r="E178" s="15">
+        <v>8.6</v>
+      </c>
+      <c r="F178" s="15">
+        <v>9</v>
+      </c>
+      <c r="G178" s="15">
+        <v>0</v>
+      </c>
+      <c r="H178" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I178" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="J178" s="15">
+        <v>0</v>
+      </c>
+      <c r="K178" s="15">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="L178" s="15">
+        <v>0</v>
+      </c>
+      <c r="M178" s="15">
+        <v>-0.4</v>
+      </c>
+      <c r="N178" s="15">
+        <v>0.872</v>
+      </c>
+      <c r="O178" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="P178" s="15">
+        <v>5.2545510000000002</v>
+      </c>
+      <c r="Q178" s="15">
+        <v>0.64739460000000004</v>
+      </c>
+      <c r="R178" s="15">
+        <v>0</v>
+      </c>
+      <c r="S178" s="15">
+        <v>0</v>
+      </c>
+      <c r="T178" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="U178" s="15">
+        <v>2.8324069999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A179" s="13">
+        <v>11</v>
+      </c>
+      <c r="B179" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="C179" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D179" s="15">
+        <v>1</v>
+      </c>
+      <c r="E179" s="15">
+        <v>9</v>
+      </c>
+      <c r="F179" s="15">
+        <v>9</v>
+      </c>
+      <c r="G179" s="15">
+        <v>0</v>
+      </c>
+      <c r="H179" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="I179" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="J179" s="15">
+        <v>0</v>
+      </c>
+      <c r="K179" s="15">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="L179" s="15">
+        <v>0</v>
+      </c>
+      <c r="M179" s="15">
+        <v>-0.4</v>
+      </c>
+      <c r="N179" s="15">
+        <v>0.872</v>
+      </c>
+      <c r="O179" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="P179" s="15">
+        <v>5.2545510000000002</v>
+      </c>
+      <c r="Q179" s="15">
+        <v>0.64739460000000004</v>
+      </c>
+      <c r="R179" s="15">
+        <v>0</v>
+      </c>
+      <c r="S179" s="15">
+        <v>0</v>
+      </c>
+      <c r="T179" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="U179" s="15">
+        <v>2.973449</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181">
+        <v>-0.3</v>
+      </c>
+      <c r="C181">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D181">
+        <v>0.9</v>
+      </c>
+      <c r="E181">
+        <v>5</v>
+      </c>
+      <c r="F181">
+        <v>9</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>-0.5</v>
+      </c>
+      <c r="I181">
+        <v>0.5</v>
+      </c>
+      <c r="J181">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0.752</v>
+      </c>
+      <c r="N181">
+        <v>0.3</v>
+      </c>
+      <c r="O181">
+        <v>0.8</v>
+      </c>
+      <c r="P181">
+        <v>5.5096889999999998</v>
+      </c>
+      <c r="Q181">
+        <v>0.71796543999999995</v>
+      </c>
+      <c r="R181">
+        <v>0</v>
+      </c>
+      <c r="S181">
+        <v>0</v>
+      </c>
+      <c r="T181">
+        <v>0</v>
+      </c>
+      <c r="U181">
+        <v>1.4101729999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21">
+      <c r="A182">
+        <v>2</v>
+      </c>
+      <c r="B182">
+        <v>-0.3</v>
+      </c>
+      <c r="C182">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D182">
+        <v>0.9</v>
+      </c>
+      <c r="E182">
+        <v>5.4</v>
+      </c>
+      <c r="F182">
+        <v>9</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>-0.5</v>
+      </c>
+      <c r="I182">
+        <v>0.5</v>
+      </c>
+      <c r="J182">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>0.752</v>
+      </c>
+      <c r="N182">
+        <v>0.3</v>
+      </c>
+      <c r="O182">
+        <v>0.8</v>
+      </c>
+      <c r="P182">
+        <v>5.5096889999999998</v>
+      </c>
+      <c r="Q182">
+        <v>0.71796543999999995</v>
+      </c>
+      <c r="R182">
+        <v>0</v>
+      </c>
+      <c r="S182">
+        <v>0</v>
+      </c>
+      <c r="T182">
+        <v>0</v>
+      </c>
+      <c r="U182">
+        <v>1.5229870000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21">
+      <c r="A183">
+        <v>3</v>
+      </c>
+      <c r="B183">
+        <v>-0.3</v>
+      </c>
+      <c r="C183">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D183">
+        <v>0.9</v>
+      </c>
+      <c r="E183">
+        <v>5.8</v>
+      </c>
+      <c r="F183">
+        <v>9</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>-0.5</v>
+      </c>
+      <c r="I183">
+        <v>0.5</v>
+      </c>
+      <c r="J183">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0.752</v>
+      </c>
+      <c r="N183">
+        <v>0.3</v>
+      </c>
+      <c r="O183">
+        <v>0.8</v>
+      </c>
+      <c r="P183">
+        <v>5.5096889999999998</v>
+      </c>
+      <c r="Q183">
+        <v>0.71796543999999995</v>
+      </c>
+      <c r="R183">
+        <v>0</v>
+      </c>
+      <c r="S183">
+        <v>0</v>
+      </c>
+      <c r="T183">
+        <v>0</v>
+      </c>
+      <c r="U183">
+        <v>1.6357999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21">
+      <c r="A184">
+        <v>4</v>
+      </c>
+      <c r="B184">
+        <v>-0.3</v>
+      </c>
+      <c r="C184">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D184">
+        <v>0.9</v>
+      </c>
+      <c r="E184">
+        <v>6.2</v>
+      </c>
+      <c r="F184">
+        <v>9</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>-0.5</v>
+      </c>
+      <c r="I184">
+        <v>0.5</v>
+      </c>
+      <c r="J184">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>0.752</v>
+      </c>
+      <c r="N184">
+        <v>0.3</v>
+      </c>
+      <c r="O184">
+        <v>0.8</v>
+      </c>
+      <c r="P184">
+        <v>5.5096889999999998</v>
+      </c>
+      <c r="Q184">
+        <v>0.71796543999999995</v>
+      </c>
+      <c r="R184">
+        <v>0</v>
+      </c>
+      <c r="S184">
+        <v>0</v>
+      </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
+      <c r="U184">
+        <v>1.7486139999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21">
+      <c r="A185">
+        <v>5</v>
+      </c>
+      <c r="B185">
+        <v>-0.3</v>
+      </c>
+      <c r="C185">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D185">
+        <v>0.9</v>
+      </c>
+      <c r="E185">
+        <v>6.6</v>
+      </c>
+      <c r="F185">
+        <v>9</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>-0.5</v>
+      </c>
+      <c r="I185">
+        <v>0.5</v>
+      </c>
+      <c r="J185">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>0.752</v>
+      </c>
+      <c r="N185">
+        <v>0.3</v>
+      </c>
+      <c r="O185">
+        <v>0.8</v>
+      </c>
+      <c r="P185">
+        <v>5.5096889999999998</v>
+      </c>
+      <c r="Q185">
+        <v>0.71796543999999995</v>
+      </c>
+      <c r="R185">
+        <v>0</v>
+      </c>
+      <c r="S185">
+        <v>0</v>
+      </c>
+      <c r="T185">
+        <v>0</v>
+      </c>
+      <c r="U185">
+        <v>1.8614280000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21">
+      <c r="A186">
+        <v>6</v>
+      </c>
+      <c r="B186">
+        <v>-0.3</v>
+      </c>
+      <c r="C186">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D186">
+        <v>0.9</v>
+      </c>
+      <c r="E186">
+        <v>7</v>
+      </c>
+      <c r="F186">
+        <v>9</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>-0.5</v>
+      </c>
+      <c r="I186">
+        <v>0.5</v>
+      </c>
+      <c r="J186">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>0.752</v>
+      </c>
+      <c r="N186">
+        <v>0.3</v>
+      </c>
+      <c r="O186">
+        <v>0.8</v>
+      </c>
+      <c r="P186">
+        <v>5.5096889999999998</v>
+      </c>
+      <c r="Q186">
+        <v>0.71796543999999995</v>
+      </c>
+      <c r="R186">
+        <v>0</v>
+      </c>
+      <c r="S186">
+        <v>0</v>
+      </c>
+      <c r="T186">
+        <v>0</v>
+      </c>
+      <c r="U186">
+        <v>1.9742420000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21">
+      <c r="A187">
+        <v>7</v>
+      </c>
+      <c r="B187">
+        <v>-0.3</v>
+      </c>
+      <c r="C187">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D187">
+        <v>0.9</v>
+      </c>
+      <c r="E187">
+        <v>7.4</v>
+      </c>
+      <c r="F187">
+        <v>9</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>-0.5</v>
+      </c>
+      <c r="I187">
+        <v>0.5</v>
+      </c>
+      <c r="J187">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>0.752</v>
+      </c>
+      <c r="N187">
+        <v>0.3</v>
+      </c>
+      <c r="O187">
+        <v>0.8</v>
+      </c>
+      <c r="P187">
+        <v>5.5096889999999998</v>
+      </c>
+      <c r="Q187">
+        <v>0.71796543999999995</v>
+      </c>
+      <c r="R187">
+        <v>0</v>
+      </c>
+      <c r="S187">
+        <v>0</v>
+      </c>
+      <c r="T187">
+        <v>0</v>
+      </c>
+      <c r="U187">
+        <v>2.087056</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21">
+      <c r="A188">
+        <v>8</v>
+      </c>
+      <c r="B188">
+        <v>-0.3</v>
+      </c>
+      <c r="C188">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D188">
+        <v>0.9</v>
+      </c>
+      <c r="E188">
+        <v>7.8</v>
+      </c>
+      <c r="F188">
+        <v>9</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>-0.5</v>
+      </c>
+      <c r="I188">
+        <v>0.5</v>
+      </c>
+      <c r="J188">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0.752</v>
+      </c>
+      <c r="N188">
+        <v>0.3</v>
+      </c>
+      <c r="O188">
+        <v>0.8</v>
+      </c>
+      <c r="P188">
+        <v>5.5096889999999998</v>
+      </c>
+      <c r="Q188">
+        <v>0.71796543999999995</v>
+      </c>
+      <c r="R188">
+        <v>0</v>
+      </c>
+      <c r="S188">
+        <v>0</v>
+      </c>
+      <c r="T188">
+        <v>0</v>
+      </c>
+      <c r="U188">
+        <v>2.1998700000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21">
+      <c r="A189">
+        <v>9</v>
+      </c>
+      <c r="B189">
+        <v>-0.3</v>
+      </c>
+      <c r="C189">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D189">
+        <v>0.9</v>
+      </c>
+      <c r="E189">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F189">
+        <v>9</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>-0.5</v>
+      </c>
+      <c r="I189">
+        <v>0.5</v>
+      </c>
+      <c r="J189">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>0.752</v>
+      </c>
+      <c r="N189">
+        <v>0.3</v>
+      </c>
+      <c r="O189">
+        <v>0.8</v>
+      </c>
+      <c r="P189">
+        <v>5.5096889999999998</v>
+      </c>
+      <c r="Q189">
+        <v>0.71796543999999995</v>
+      </c>
+      <c r="R189">
+        <v>0</v>
+      </c>
+      <c r="S189">
+        <v>0</v>
+      </c>
+      <c r="T189">
+        <v>0</v>
+      </c>
+      <c r="U189">
+        <v>2.3126829999999998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21">
+      <c r="A190">
+        <v>10</v>
+      </c>
+      <c r="B190">
+        <v>-0.3</v>
+      </c>
+      <c r="C190">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D190">
+        <v>0.9</v>
+      </c>
+      <c r="E190">
+        <v>8.6</v>
+      </c>
+      <c r="F190">
+        <v>9</v>
+      </c>
+      <c r="G190">
+        <v>2</v>
+      </c>
+      <c r="H190">
+        <v>1.5</v>
+      </c>
+      <c r="I190">
+        <v>1.9</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>-1.6</v>
+      </c>
+      <c r="N190">
+        <v>-1.7</v>
+      </c>
+      <c r="O190">
+        <v>-1.2</v>
+      </c>
+      <c r="P190">
+        <v>0.77665490000000004</v>
+      </c>
+      <c r="Q190">
+        <v>8.6294990000000002E-2</v>
+      </c>
+      <c r="R190">
+        <v>2</v>
+      </c>
+      <c r="S190">
+        <v>2</v>
+      </c>
+      <c r="T190">
+        <v>1.4</v>
+      </c>
+      <c r="U190">
+        <v>2.4578630000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21">
+      <c r="A191">
+        <v>11</v>
+      </c>
+      <c r="B191">
+        <v>-0.3</v>
+      </c>
+      <c r="C191">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D191">
+        <v>0.9</v>
+      </c>
+      <c r="E191">
+        <v>9</v>
+      </c>
+      <c r="F191">
+        <v>9</v>
+      </c>
+      <c r="G191">
+        <v>2</v>
+      </c>
+      <c r="H191">
+        <v>1.5</v>
+      </c>
+      <c r="I191">
+        <v>1.9</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>-1.6</v>
+      </c>
+      <c r="N191">
+        <v>-1.7</v>
+      </c>
+      <c r="O191">
+        <v>-1.2</v>
+      </c>
+      <c r="P191">
+        <v>0.77665490000000004</v>
+      </c>
+      <c r="Q191">
+        <v>8.6294990000000002E-2</v>
+      </c>
+      <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
+        <v>2</v>
+      </c>
+      <c r="T191">
+        <v>1.4</v>
+      </c>
+      <c r="U191">
+        <v>2.8233450000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
